--- a/requisitos.xlsx
+++ b/requisitos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
   <si>
     <t xml:space="preserve">Código</t>
   </si>
@@ -523,6 +523,9 @@
   </si>
   <si>
     <t xml:space="preserve">Estadísticas Cantidad de torrents totales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exportar estadísticas a CSV</t>
   </si>
 </sst>
 </file>
@@ -913,21 +916,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="23.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="54.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="4" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="4" width="10.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="11.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="4" width="10.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="5" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="4" width="10.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="5" width="10.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -972,7 +975,7 @@
       <c r="G2" s="11"/>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" s="13" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="13" customFormat="true" ht="40.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
@@ -988,7 +991,7 @@
       <c r="G3" s="11"/>
       <c r="H3" s="12"/>
     </row>
-    <row r="4" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="13" customFormat="true" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
@@ -1004,7 +1007,7 @@
       <c r="G4" s="11"/>
       <c r="H4" s="12"/>
     </row>
-    <row r="5" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="18.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
         <v>17</v>
       </c>
@@ -1020,7 +1023,7 @@
       <c r="G5" s="11"/>
       <c r="H5" s="12"/>
     </row>
-    <row r="6" s="13" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="59.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
         <v>20</v>
       </c>
@@ -1036,7 +1039,7 @@
       <c r="G6" s="11"/>
       <c r="H6" s="12"/>
     </row>
-    <row r="7" s="13" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="38.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
         <v>23</v>
       </c>
@@ -1052,7 +1055,7 @@
       <c r="G7" s="11"/>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" s="13" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="38.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
         <v>26</v>
       </c>
@@ -1068,7 +1071,7 @@
       <c r="G8" s="11"/>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" s="13" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="47.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
         <v>29</v>
       </c>
@@ -1084,7 +1087,7 @@
       <c r="G9" s="11"/>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" s="13" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="40.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
         <v>32</v>
       </c>
@@ -1100,7 +1103,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" s="13" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="39.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
         <v>35</v>
       </c>
@@ -1116,7 +1119,7 @@
       <c r="G11" s="11"/>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" s="13" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
         <v>38</v>
       </c>
@@ -1132,7 +1135,7 @@
       <c r="G12" s="11"/>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" s="13" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="40.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
         <v>41</v>
       </c>
@@ -1146,7 +1149,7 @@
       <c r="G13" s="11"/>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" s="13" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="36.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
         <v>43</v>
       </c>
@@ -1160,7 +1163,7 @@
       <c r="G14" s="11"/>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="35.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
         <v>45</v>
       </c>
@@ -1174,7 +1177,7 @@
       <c r="G15" s="11"/>
       <c r="H15" s="12"/>
     </row>
-    <row r="16" s="13" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="43.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
         <v>47</v>
       </c>
@@ -1188,7 +1191,7 @@
       <c r="G16" s="11"/>
       <c r="H16" s="12"/>
     </row>
-    <row r="17" s="13" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="43.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
         <v>49</v>
       </c>
@@ -1202,7 +1205,7 @@
       <c r="G17" s="11"/>
       <c r="H17" s="12"/>
     </row>
-    <row r="18" s="19" customFormat="true" ht="111.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" s="19" customFormat="true" ht="160.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
         <v>51</v>
       </c>
@@ -1218,7 +1221,7 @@
       <c r="G18" s="17"/>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" s="19" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" s="19" customFormat="true" ht="65.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
         <v>54</v>
       </c>
@@ -1234,7 +1237,7 @@
       <c r="G19" s="17"/>
       <c r="H19" s="18"/>
     </row>
-    <row r="20" s="24" customFormat="true" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" s="24" customFormat="true" ht="123.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
         <v>57</v>
       </c>
@@ -1250,7 +1253,7 @@
       <c r="G20" s="22"/>
       <c r="H20" s="23"/>
     </row>
-    <row r="21" s="24" customFormat="true" ht="191.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" s="24" customFormat="true" ht="261.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
         <v>60</v>
       </c>
@@ -1266,7 +1269,7 @@
       <c r="G21" s="22"/>
       <c r="H21" s="23"/>
     </row>
-    <row r="22" s="24" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" s="24" customFormat="true" ht="53.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
         <v>63</v>
       </c>
@@ -1282,7 +1285,7 @@
       <c r="G22" s="22"/>
       <c r="H22" s="23"/>
     </row>
-    <row r="23" s="24" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" s="24" customFormat="true" ht="44.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
         <v>66</v>
       </c>
@@ -1298,7 +1301,7 @@
       <c r="G23" s="22"/>
       <c r="H23" s="23"/>
     </row>
-    <row r="24" s="24" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" s="24" customFormat="true" ht="50.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
         <v>69</v>
       </c>
@@ -1314,7 +1317,7 @@
       <c r="G24" s="22"/>
       <c r="H24" s="23"/>
     </row>
-    <row r="25" s="24" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" s="24" customFormat="true" ht="38.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
         <v>72</v>
       </c>
@@ -1330,7 +1333,7 @@
       <c r="G25" s="22"/>
       <c r="H25" s="23"/>
     </row>
-    <row r="26" s="24" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" s="24" customFormat="true" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
         <v>75</v>
       </c>
@@ -1346,7 +1349,7 @@
       <c r="G26" s="22"/>
       <c r="H26" s="23"/>
     </row>
-    <row r="27" s="24" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" s="24" customFormat="true" ht="32.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
         <v>78</v>
       </c>
@@ -1378,7 +1381,7 @@
       <c r="G28" s="22"/>
       <c r="H28" s="23"/>
     </row>
-    <row r="29" s="24" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" s="24" customFormat="true" ht="48.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
         <v>84</v>
       </c>
@@ -1406,7 +1409,7 @@
       <c r="G30" s="22"/>
       <c r="H30" s="23"/>
     </row>
-    <row r="31" s="24" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" s="24" customFormat="true" ht="37.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
         <v>88</v>
       </c>
@@ -1420,7 +1423,7 @@
       <c r="G31" s="22"/>
       <c r="H31" s="23"/>
     </row>
-    <row r="32" s="24" customFormat="true" ht="147.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" s="24" customFormat="true" ht="201.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
         <v>90</v>
       </c>
@@ -1436,7 +1439,7 @@
       <c r="G32" s="22"/>
       <c r="H32" s="23"/>
     </row>
-    <row r="33" s="24" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" s="24" customFormat="true" ht="60.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="8" t="s">
         <v>93</v>
       </c>
@@ -1452,7 +1455,7 @@
       <c r="G33" s="22"/>
       <c r="H33" s="23"/>
     </row>
-    <row r="34" s="29" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" s="29" customFormat="true" ht="62.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="s">
         <v>96</v>
       </c>
@@ -1468,7 +1471,7 @@
       <c r="G34" s="27"/>
       <c r="H34" s="28"/>
     </row>
-    <row r="35" s="29" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" s="29" customFormat="true" ht="19.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="s">
         <v>99</v>
       </c>
@@ -1510,7 +1513,7 @@
       <c r="G37" s="27"/>
       <c r="H37" s="28"/>
     </row>
-    <row r="38" s="29" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" s="29" customFormat="true" ht="39.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="8" t="s">
         <v>105</v>
       </c>
@@ -1524,7 +1527,7 @@
       <c r="G38" s="27"/>
       <c r="H38" s="28"/>
     </row>
-    <row r="39" s="29" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" s="29" customFormat="true" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="8" t="s">
         <v>107</v>
       </c>
@@ -1538,7 +1541,7 @@
       <c r="G39" s="27"/>
       <c r="H39" s="28"/>
     </row>
-    <row r="40" s="29" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" s="29" customFormat="true" ht="36.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="8" t="s">
         <v>109</v>
       </c>
@@ -1552,7 +1555,7 @@
       <c r="G40" s="27"/>
       <c r="H40" s="28"/>
     </row>
-    <row r="41" s="29" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" s="29" customFormat="true" ht="79.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="8" t="s">
         <v>111</v>
       </c>
@@ -1568,7 +1571,7 @@
       <c r="G41" s="27"/>
       <c r="H41" s="28"/>
     </row>
-    <row r="42" s="29" customFormat="true" ht="40.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" s="29" customFormat="true" ht="60.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="8" t="s">
         <v>114</v>
       </c>
@@ -1582,7 +1585,7 @@
       <c r="G42" s="27"/>
       <c r="H42" s="28"/>
     </row>
-    <row r="43" s="29" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" s="29" customFormat="true" ht="45.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="8" t="s">
         <v>116</v>
       </c>
@@ -1652,7 +1655,7 @@
       <c r="G47" s="32"/>
       <c r="H47" s="33"/>
     </row>
-    <row r="48" s="34" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" s="34" customFormat="true" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="8" t="s">
         <v>126</v>
       </c>
@@ -1666,7 +1669,7 @@
       <c r="G48" s="32"/>
       <c r="H48" s="33"/>
     </row>
-    <row r="49" s="34" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" s="34" customFormat="true" ht="40.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="8" t="s">
         <v>128</v>
       </c>
@@ -1708,7 +1711,7 @@
       <c r="G51" s="32"/>
       <c r="H51" s="33"/>
     </row>
-    <row r="52" s="34" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" s="34" customFormat="true" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="8" t="s">
         <v>134</v>
       </c>
@@ -1722,7 +1725,7 @@
       <c r="G52" s="32"/>
       <c r="H52" s="33"/>
     </row>
-    <row r="53" s="34" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" s="34" customFormat="true" ht="43.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="8" t="s">
         <v>136</v>
       </c>
@@ -1736,7 +1739,7 @@
       <c r="G53" s="32"/>
       <c r="H53" s="33"/>
     </row>
-    <row r="54" s="39" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" s="39" customFormat="true" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="8" t="s">
         <v>138</v>
       </c>
@@ -1750,7 +1753,7 @@
       <c r="G54" s="37"/>
       <c r="H54" s="38"/>
     </row>
-    <row r="55" s="39" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" s="39" customFormat="true" ht="41.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="8" t="s">
         <v>140</v>
       </c>
@@ -1764,7 +1767,7 @@
       <c r="G55" s="37"/>
       <c r="H55" s="38"/>
     </row>
-    <row r="56" s="39" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" s="39" customFormat="true" ht="39.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="8" t="s">
         <v>142</v>
       </c>
@@ -1778,7 +1781,7 @@
       <c r="G56" s="37"/>
       <c r="H56" s="38"/>
     </row>
-    <row r="57" s="39" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" s="39" customFormat="true" ht="36.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="8" t="s">
         <v>144</v>
       </c>
@@ -1792,7 +1795,7 @@
       <c r="G57" s="37"/>
       <c r="H57" s="38"/>
     </row>
-    <row r="58" s="39" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" s="39" customFormat="true" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="8" t="s">
         <v>146</v>
       </c>
@@ -1806,7 +1809,7 @@
       <c r="G58" s="37"/>
       <c r="H58" s="38"/>
     </row>
-    <row r="59" s="44" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" s="44" customFormat="true" ht="37.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="8" t="s">
         <v>148</v>
       </c>
@@ -1820,7 +1823,7 @@
       <c r="G59" s="42"/>
       <c r="H59" s="43"/>
     </row>
-    <row r="60" s="44" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" s="44" customFormat="true" ht="40.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="8" t="s">
         <v>150</v>
       </c>
@@ -1834,7 +1837,7 @@
       <c r="G60" s="42"/>
       <c r="H60" s="43"/>
     </row>
-    <row r="61" s="44" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" s="44" customFormat="true" ht="38.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="8" t="s">
         <v>152</v>
       </c>
@@ -1848,21 +1851,33 @@
       <c r="G61" s="42"/>
       <c r="H61" s="43"/>
     </row>
+    <row r="62" s="44" customFormat="true" ht="38.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="8"/>
+      <c r="B62" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="C62" s="41"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="42"/>
+      <c r="H62" s="43"/>
+    </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D2:D61" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D2:D62" type="list">
       <formula1>"Mínimo,Importante,Opcional"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E2:E61" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E2:E62" type="list">
       <formula1>"Técnico,Funcional,Información"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F2:F61" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F2:F62" type="list">
       <formula1>"Fácil,Media,Difícil"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="G2:G61" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="G2:G62" type="list">
       <formula1>"v1,v2,v3"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/requisitos.xlsx
+++ b/requisitos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="205">
   <si>
     <t xml:space="preserve">Código</t>
   </si>
@@ -155,28 +155,43 @@
     <t xml:space="preserve">Cambiar contraseña de usuario</t>
   </si>
   <si>
+    <t xml:space="preserve">Los usuarios pueden cambiar su propia contraseña</t>
+  </si>
+  <si>
     <t xml:space="preserve">R13</t>
   </si>
   <si>
     <t xml:space="preserve">Bloquear acceso a un usuario</t>
   </si>
   <si>
+    <t xml:space="preserve">Los usuarios marcados como bloqueado no podrán volver a iniciar sesión</t>
+  </si>
+  <si>
     <t xml:space="preserve">R14</t>
   </si>
   <si>
     <t xml:space="preserve">Bloquear acceso a una IP</t>
   </si>
   <si>
+    <t xml:space="preserve">Las IP que se hayan marcado como bloqueadas no podrán volver a iniciar sesión</t>
+  </si>
+  <si>
     <t xml:space="preserve">R15</t>
   </si>
   <si>
     <t xml:space="preserve">Mostrar torrent totales de un usuario al ver su perfil</t>
   </si>
   <si>
+    <t xml:space="preserve">En la vista del usuario muestra la cantidad de torrent totales</t>
+  </si>
+  <si>
     <t xml:space="preserve">R16</t>
   </si>
   <si>
     <t xml:space="preserve">Cuando un usuario es borrado recibe un correo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Envia correo al usuario cuando este se borra</t>
   </si>
   <si>
     <t xml:space="preserve">R17</t>
@@ -314,16 +329,25 @@
     <t xml:space="preserve">Mostrar veces que se ha pulsado descargar un torrent</t>
   </si>
   <si>
+    <t xml:space="preserve">Cada vez que se pulsa un torrent se registra y cuando se visualiza este se muestra la cantidad de veces que se ha descargado.</t>
+  </si>
+  <si>
     <t xml:space="preserve">R29</t>
   </si>
   <si>
     <t xml:space="preserve">Descargar Torrent</t>
   </si>
   <si>
+    <t xml:space="preserve">Al pulsar comenzará la descarga del archivo torrent</t>
+  </si>
+  <si>
     <t xml:space="preserve">R30</t>
   </si>
   <si>
     <t xml:space="preserve">Copiar enlace Magnet al portapapeles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al pulsar sobre un icono, se copiará automáticamente el enlace al portapapeles del sistema operativo</t>
   </si>
   <si>
     <t xml:space="preserve">R31</t>
@@ -363,34 +387,52 @@
     <t xml:space="preserve">Modificar Comentario</t>
   </si>
   <si>
+    <t xml:space="preserve">Permite modificar comentarios propios</t>
+  </si>
+  <si>
     <t xml:space="preserve">R35</t>
   </si>
   <si>
     <t xml:space="preserve">Eliminar Comentario</t>
   </si>
   <si>
+    <t xml:space="preserve">Permite eliminar comentarios propios</t>
+  </si>
+  <si>
     <t xml:space="preserve">R36</t>
   </si>
   <si>
     <t xml:space="preserve">Reportar Comentario</t>
   </si>
   <si>
+    <t xml:space="preserve">Un usuario puede marcar un comentario para reportarlo solo una vez. Esto envía una notificación a un administrdor/moderador</t>
+  </si>
+  <si>
     <t xml:space="preserve">R37</t>
   </si>
   <si>
     <t xml:space="preserve">Votar Positivo un comentario</t>
   </si>
   <si>
+    <t xml:space="preserve">Los comentarios se pueden votar positivo</t>
+  </si>
+  <si>
     <t xml:space="preserve">R38</t>
   </si>
   <si>
     <t xml:space="preserve">Votar Negativo un comentario</t>
   </si>
   <si>
+    <t xml:space="preserve">Los comentarios se pueden votar negativo</t>
+  </si>
+  <si>
     <t xml:space="preserve">R39</t>
   </si>
   <si>
     <t xml:space="preserve">Visualizar comentarios asociados a un torrent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuando se visualiza un torrent aparecerán debajo del mismo los últimos 10 comentarios realizados</t>
   </si>
   <si>
     <t xml:space="preserve">R40</t>
@@ -408,7 +450,10 @@
     <t xml:space="preserve">R41</t>
   </si>
   <si>
-    <t xml:space="preserve">Los comentarios no pueden superar los 300 caracteres</t>
+    <t xml:space="preserve">Los comentarios no pueden superar los 500 caracteres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los comentarios no pueden extenderse más de 500 caracteres</t>
   </si>
   <si>
     <t xml:space="preserve">R42</t>
@@ -417,115 +462,229 @@
     <t xml:space="preserve">Solo se permite 1 comentario cada 5 minutos</t>
   </si>
   <si>
+    <t xml:space="preserve">Un usuario no podrá realizar comentarios seguidos dentro del tiempo indicado (5 minutos en principio)</t>
+  </si>
+  <si>
     <t xml:space="preserve">R43</t>
   </si>
   <si>
     <t xml:space="preserve">Validar HTML5</t>
   </si>
   <si>
+    <t xml:space="preserve">Utilizar HMTL correctamente cumpliendo estándares W3C</t>
+  </si>
+  <si>
     <t xml:space="preserve">R44</t>
   </si>
   <si>
     <t xml:space="preserve">Validar CSS3</t>
   </si>
   <si>
+    <t xml:space="preserve">Utilizar CSS correctamente cumpliendo estándares W3C</t>
+  </si>
+  <si>
     <t xml:space="preserve">R45</t>
   </si>
   <si>
     <t xml:space="preserve">Validar modularidad</t>
   </si>
   <si>
+    <t xml:space="preserve">Asegurar que la aplicación es modular permitiendo reemplazar fácilmente alguna de sus partes o reutilizarla en otro proyecto</t>
+  </si>
+  <si>
     <t xml:space="preserve">R46</t>
   </si>
   <si>
     <t xml:space="preserve">Validar Accesibilidad</t>
   </si>
   <si>
+    <t xml:space="preserve">Mínimas reglas de accesibilidad cumplida</t>
+  </si>
+  <si>
     <t xml:space="preserve">R47</t>
   </si>
   <si>
     <t xml:space="preserve">Validar Formularios desde Servidor</t>
   </si>
   <si>
+    <t xml:space="preserve">Validar los formularios recibidos en el servidor sin tener en cuenta si ya se han validado en el usuario/cliente</t>
+  </si>
+  <si>
     <t xml:space="preserve">R48</t>
   </si>
   <si>
     <t xml:space="preserve">Validar Formularios desde Cliente</t>
   </si>
   <si>
+    <t xml:space="preserve">Validar los formularios antes de ser enviados, por el navegador usuario/cliente</t>
+  </si>
+  <si>
     <t xml:space="preserve">R49</t>
   </si>
   <si>
     <t xml:space="preserve">Utilizar AJAX</t>
   </si>
   <si>
+    <t xml:space="preserve">Añadir funcionalidades que hagan uso de Ajax</t>
+  </si>
+  <si>
     <t xml:space="preserve">R50</t>
   </si>
   <si>
     <t xml:space="preserve">Utilizar jQuery</t>
   </si>
   <si>
+    <t xml:space="preserve">Añadir funcionalidades que hagan uso de jQuery</t>
+  </si>
+  <si>
     <t xml:space="preserve">R51</t>
   </si>
   <si>
     <t xml:space="preserve">Visualizar maquetación en distintos navegadores web</t>
   </si>
   <si>
+    <t xml:space="preserve">Comprobar que cada elemento se encuentra en el lugar que corresponde al ser visualizado en distintos navegadores</t>
+  </si>
+  <si>
     <t xml:space="preserve">R52</t>
   </si>
   <si>
     <t xml:space="preserve">Visualizar diseño en distintos navegadores web</t>
   </si>
   <si>
+    <t xml:space="preserve">Comprobar que la visualización de la aplicación es aceptable en distintos navegadores conocidos y más utilizados como:
+- Firefox
+- Firefox-ESR
+- Chromium
+- Chrome
+- Safari
+- Opera
+- Epyphany
+- Falkon
+- Google Browser (Android)</t>
+  </si>
+  <si>
     <t xml:space="preserve">R53</t>
   </si>
   <si>
     <t xml:space="preserve">Desplegar Aplicación en local</t>
   </si>
   <si>
+    <t xml:space="preserve">Desplegar la aplicación en local simulando produción (sin desarrollo para probarla y someterla a tests)</t>
+  </si>
+  <si>
     <t xml:space="preserve">R54</t>
   </si>
   <si>
     <t xml:space="preserve">Desplegar la aplicación en cloud</t>
   </si>
   <si>
+    <t xml:space="preserve">Subir y desplegar la aplicación en un servidor remoto para producción</t>
+  </si>
+  <si>
     <t xml:space="preserve">R55</t>
   </si>
   <si>
     <t xml:space="preserve">Mostrar en un lateral torrents mejor valorados</t>
   </si>
   <si>
+    <t xml:space="preserve">Los 5 torrents con más puntuación se verán en el lateral siendo accesibles con un click</t>
+  </si>
+  <si>
     <t xml:space="preserve">R56</t>
   </si>
   <si>
     <t xml:space="preserve">Mostrar últimos comentarios en lateral</t>
   </si>
   <si>
+    <t xml:space="preserve">Los 5 últimos comentarios se mostrarán en el menú lateral</t>
+  </si>
+  <si>
     <t xml:space="preserve">R57</t>
   </si>
   <si>
     <t xml:space="preserve">Registrar accesos en BD</t>
   </si>
   <si>
+    <t xml:space="preserve">Cada vez que un usuario accede (crea una nueva sesión) al sitio web se registra su dirección ip, si está logueado lo asocia a dicho usuario</t>
+  </si>
+  <si>
     <t xml:space="preserve">R58</t>
   </si>
   <si>
     <t xml:space="preserve">Estadísticas Cantidad de descargas totales</t>
   </si>
   <si>
+    <t xml:space="preserve">Dibuja en una gráfica el total de descargas de torrents por agregación al mes</t>
+  </si>
+  <si>
     <t xml:space="preserve">R59</t>
   </si>
   <si>
     <t xml:space="preserve">Estadísticas Cantidad de usuarios totales</t>
   </si>
   <si>
+    <t xml:space="preserve">Dibuja en una gráfica la estadística con la cantidad de usuarios totales por agregación al mes</t>
+  </si>
+  <si>
     <t xml:space="preserve">R60</t>
   </si>
   <si>
     <t xml:space="preserve">Estadísticas Cantidad de torrents totales</t>
   </si>
   <si>
+    <t xml:space="preserve">Dibuja en una gráfica la estadística con el total de torrent totales por agregación al mes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R61</t>
+  </si>
+  <si>
     <t xml:space="preserve">Exportar estadísticas a CSV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estadísticas como la cantidad de usuarios, cantidad de torrents, descargas totales… podrán ser exportadas a un archivo CSV por un administrador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enviar estadísticas por email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las estadísticas serán enviadas mensualmente por email o manualmente pulsando sobre dicha acción</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login Google+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login Facebook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permite acceder a la aplicación mediante cuenta de Facebook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enviar emails con noticias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permite enviar emails a los suscritos en la aplicación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Darse de baja a los emails</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Posibilidad de continuar con la cuenta, pero sin recibir emails</t>
   </si>
 </sst>
 </file>
@@ -535,7 +694,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -565,6 +724,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -658,7 +823,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -779,11 +944,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -799,11 +968,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -823,7 +996,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -837,6 +1010,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -916,10 +1093,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -959,7 +1136,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="13" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="13" customFormat="true" ht="49.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
@@ -1119,7 +1296,7 @@
       <c r="G11" s="11"/>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="36.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
         <v>38</v>
       </c>
@@ -1142,7 +1319,9 @@
       <c r="B13" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
@@ -1151,12 +1330,14 @@
     </row>
     <row r="14" customFormat="false" ht="36.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="10"/>
+        <v>45</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
@@ -1165,12 +1346,14 @@
     </row>
     <row r="15" customFormat="false" ht="35.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="10"/>
+        <v>48</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -1179,12 +1362,14 @@
     </row>
     <row r="16" customFormat="false" ht="43.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="10"/>
+        <v>51</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
@@ -1193,12 +1378,14 @@
     </row>
     <row r="17" customFormat="false" ht="43.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="10"/>
+        <v>54</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>55</v>
+      </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
@@ -1207,13 +1394,13 @@
     </row>
     <row r="18" s="19" customFormat="true" ht="160.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -1223,13 +1410,13 @@
     </row>
     <row r="19" s="19" customFormat="true" ht="65.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -1239,13 +1426,13 @@
     </row>
     <row r="20" s="24" customFormat="true" ht="123.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
@@ -1255,13 +1442,13 @@
     </row>
     <row r="21" s="24" customFormat="true" ht="261.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
@@ -1271,13 +1458,13 @@
     </row>
     <row r="22" s="24" customFormat="true" ht="53.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
@@ -1287,13 +1474,13 @@
     </row>
     <row r="23" s="24" customFormat="true" ht="44.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
@@ -1303,13 +1490,13 @@
     </row>
     <row r="24" s="24" customFormat="true" ht="50.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
@@ -1319,13 +1506,13 @@
     </row>
     <row r="25" s="24" customFormat="true" ht="38.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
@@ -1335,13 +1522,13 @@
     </row>
     <row r="26" s="24" customFormat="true" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
@@ -1351,13 +1538,13 @@
     </row>
     <row r="27" s="24" customFormat="true" ht="32.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
@@ -1367,13 +1554,13 @@
     </row>
     <row r="28" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
@@ -1383,26 +1570,30 @@
     </row>
     <row r="29" s="24" customFormat="true" ht="48.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C29" s="21"/>
+        <v>90</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>91</v>
+      </c>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
       <c r="H29" s="23"/>
     </row>
-    <row r="30" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" s="24" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C30" s="21"/>
+        <v>93</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>94</v>
+      </c>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
       <c r="F30" s="22"/>
@@ -1411,12 +1602,14 @@
     </row>
     <row r="31" s="24" customFormat="true" ht="37.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" s="21"/>
+        <v>96</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>97</v>
+      </c>
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
       <c r="F31" s="22"/>
@@ -1425,13 +1618,13 @@
     </row>
     <row r="32" s="24" customFormat="true" ht="201.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
@@ -1441,13 +1634,13 @@
     </row>
     <row r="33" s="24" customFormat="true" ht="60.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="8" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
@@ -1457,13 +1650,13 @@
     </row>
     <row r="34" s="29" customFormat="true" ht="62.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D34" s="27"/>
       <c r="E34" s="27"/>
@@ -1473,40 +1666,46 @@
     </row>
     <row r="35" s="29" customFormat="true" ht="19.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="C35" s="26"/>
+        <v>108</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>109</v>
+      </c>
       <c r="D35" s="27"/>
       <c r="E35" s="27"/>
       <c r="F35" s="27"/>
       <c r="G35" s="27"/>
       <c r="H35" s="28"/>
     </row>
-    <row r="36" s="29" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" s="29" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="8" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="C36" s="26"/>
+        <v>111</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>112</v>
+      </c>
       <c r="D36" s="27"/>
       <c r="E36" s="27"/>
       <c r="F36" s="27"/>
       <c r="G36" s="27"/>
       <c r="H36" s="28"/>
     </row>
-    <row r="37" s="29" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" s="29" customFormat="true" ht="40.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="8" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="C37" s="26"/>
+        <v>114</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>115</v>
+      </c>
       <c r="D37" s="27"/>
       <c r="E37" s="27"/>
       <c r="F37" s="27"/>
@@ -1515,12 +1714,14 @@
     </row>
     <row r="38" s="29" customFormat="true" ht="39.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="8" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="C38" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>118</v>
+      </c>
       <c r="D38" s="27"/>
       <c r="E38" s="27"/>
       <c r="F38" s="27"/>
@@ -1529,12 +1730,14 @@
     </row>
     <row r="39" s="29" customFormat="true" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="8" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="C39" s="26"/>
+        <v>120</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>121</v>
+      </c>
       <c r="D39" s="27"/>
       <c r="E39" s="27"/>
       <c r="F39" s="27"/>
@@ -1543,12 +1746,14 @@
     </row>
     <row r="40" s="29" customFormat="true" ht="36.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="8" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="C40" s="26"/>
+        <v>123</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>124</v>
+      </c>
       <c r="D40" s="27"/>
       <c r="E40" s="27"/>
       <c r="F40" s="27"/>
@@ -1557,13 +1762,13 @@
     </row>
     <row r="41" s="29" customFormat="true" ht="79.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="8" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="D41" s="27"/>
       <c r="E41" s="27"/>
@@ -1573,12 +1778,14 @@
     </row>
     <row r="42" s="29" customFormat="true" ht="60.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="8" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="C42" s="26"/>
+        <v>129</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>130</v>
+      </c>
       <c r="D42" s="27"/>
       <c r="E42" s="27"/>
       <c r="F42" s="27"/>
@@ -1587,297 +1794,399 @@
     </row>
     <row r="43" s="29" customFormat="true" ht="45.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="8" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="C43" s="26"/>
+        <v>132</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>133</v>
+      </c>
       <c r="D43" s="27"/>
       <c r="E43" s="27"/>
       <c r="F43" s="27"/>
       <c r="G43" s="27"/>
       <c r="H43" s="28"/>
     </row>
-    <row r="44" s="34" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" s="35" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B44" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="C44" s="31"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="33"/>
-    </row>
-    <row r="45" s="34" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>134</v>
+      </c>
+      <c r="B44" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="C44" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="34"/>
+    </row>
+    <row r="45" s="35" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B45" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="C45" s="31"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="33"/>
-    </row>
-    <row r="46" s="34" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>137</v>
+      </c>
+      <c r="B45" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="C45" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="34"/>
+    </row>
+    <row r="46" s="35" customFormat="true" ht="40.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="B46" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C46" s="31"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="33"/>
-    </row>
-    <row r="47" s="34" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>140</v>
+      </c>
+      <c r="B46" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="34"/>
+    </row>
+    <row r="47" s="35" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B47" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="C47" s="31"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="33"/>
-    </row>
-    <row r="48" s="34" customFormat="true" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>143</v>
+      </c>
+      <c r="B47" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="C47" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="34"/>
+    </row>
+    <row r="48" s="35" customFormat="true" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B48" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="C48" s="31"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="33"/>
-    </row>
-    <row r="49" s="34" customFormat="true" ht="40.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>146</v>
+      </c>
+      <c r="B48" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="C48" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="34"/>
+    </row>
+    <row r="49" s="35" customFormat="true" ht="40.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B49" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="C49" s="31"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="33"/>
-    </row>
-    <row r="50" s="34" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>149</v>
+      </c>
+      <c r="B49" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="C49" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="34"/>
+    </row>
+    <row r="50" s="35" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B50" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="C50" s="31"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="33"/>
-    </row>
-    <row r="51" s="34" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>152</v>
+      </c>
+      <c r="B50" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="C50" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="34"/>
+    </row>
+    <row r="51" s="35" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B51" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="C51" s="31"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="33"/>
-    </row>
-    <row r="52" s="34" customFormat="true" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>155</v>
+      </c>
+      <c r="B51" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="C51" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="34"/>
+    </row>
+    <row r="52" s="35" customFormat="true" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B52" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="C52" s="31"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="33"/>
-    </row>
-    <row r="53" s="34" customFormat="true" ht="43.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>158</v>
+      </c>
+      <c r="B52" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="C52" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="34"/>
+    </row>
+    <row r="53" s="35" customFormat="true" ht="186.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B53" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="C53" s="31"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="33"/>
-    </row>
-    <row r="54" s="39" customFormat="true" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>161</v>
+      </c>
+      <c r="B53" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="C53" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="34"/>
+    </row>
+    <row r="54" s="41" customFormat="true" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B54" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="38"/>
-    </row>
-    <row r="55" s="39" customFormat="true" ht="41.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>164</v>
+      </c>
+      <c r="B54" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="C54" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="40"/>
+    </row>
+    <row r="55" s="41" customFormat="true" ht="41.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="B55" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="C55" s="36"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="37"/>
-      <c r="H55" s="38"/>
-    </row>
-    <row r="56" s="39" customFormat="true" ht="39.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>167</v>
+      </c>
+      <c r="B55" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="C55" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="40"/>
+    </row>
+    <row r="56" s="41" customFormat="true" ht="39.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B56" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="C56" s="36"/>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="38"/>
-    </row>
-    <row r="57" s="39" customFormat="true" ht="36.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>170</v>
+      </c>
+      <c r="B56" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="C56" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="D56" s="39"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="40"/>
+    </row>
+    <row r="57" s="41" customFormat="true" ht="36.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B57" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="C57" s="36"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="38"/>
-    </row>
-    <row r="58" s="39" customFormat="true" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>173</v>
+      </c>
+      <c r="B57" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="C57" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="D57" s="39"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="40"/>
+    </row>
+    <row r="58" s="41" customFormat="true" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B58" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="C58" s="36"/>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="38"/>
-    </row>
-    <row r="59" s="44" customFormat="true" ht="37.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>176</v>
+      </c>
+      <c r="B58" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="C58" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="D58" s="39"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="40"/>
+    </row>
+    <row r="59" s="46" customFormat="true" ht="37.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B59" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="C59" s="41"/>
-      <c r="D59" s="42"/>
-      <c r="E59" s="42"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="42"/>
-      <c r="H59" s="43"/>
-    </row>
-    <row r="60" s="44" customFormat="true" ht="40.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>179</v>
+      </c>
+      <c r="B59" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="C59" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="D59" s="44"/>
+      <c r="E59" s="44"/>
+      <c r="F59" s="44"/>
+      <c r="G59" s="44"/>
+      <c r="H59" s="45"/>
+    </row>
+    <row r="60" s="46" customFormat="true" ht="40.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B60" s="40" t="s">
-        <v>151</v>
-      </c>
-      <c r="C60" s="41"/>
-      <c r="D60" s="42"/>
-      <c r="E60" s="42"/>
-      <c r="F60" s="42"/>
-      <c r="G60" s="42"/>
-      <c r="H60" s="43"/>
-    </row>
-    <row r="61" s="44" customFormat="true" ht="38.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>182</v>
+      </c>
+      <c r="B60" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="C60" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="D60" s="44"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="44"/>
+      <c r="G60" s="44"/>
+      <c r="H60" s="45"/>
+    </row>
+    <row r="61" s="46" customFormat="true" ht="38.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B61" s="40" t="s">
-        <v>153</v>
-      </c>
-      <c r="C61" s="41"/>
-      <c r="D61" s="42"/>
-      <c r="E61" s="42"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="42"/>
-      <c r="H61" s="43"/>
-    </row>
-    <row r="62" s="44" customFormat="true" ht="38.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="8"/>
-      <c r="B62" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="C62" s="41"/>
-      <c r="D62" s="42"/>
-      <c r="E62" s="42"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="42"/>
-      <c r="H62" s="43"/>
+        <v>185</v>
+      </c>
+      <c r="B61" s="42" t="s">
+        <v>186</v>
+      </c>
+      <c r="C61" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="D61" s="44"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="44"/>
+      <c r="G61" s="44"/>
+      <c r="H61" s="45"/>
+    </row>
+    <row r="62" s="46" customFormat="true" ht="56.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B62" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="C62" s="47" t="s">
+        <v>190</v>
+      </c>
+      <c r="D62" s="44"/>
+      <c r="E62" s="44"/>
+      <c r="F62" s="44"/>
+      <c r="G62" s="44"/>
+      <c r="H62" s="45"/>
+    </row>
+    <row r="63" s="46" customFormat="true" ht="56.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B63" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="C63" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="D63" s="44"/>
+      <c r="E63" s="44"/>
+      <c r="F63" s="44"/>
+      <c r="G63" s="44"/>
+      <c r="H63" s="45"/>
+    </row>
+    <row r="64" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>204</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D2:D62" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D2:D63" type="list">
       <formula1>"Mínimo,Importante,Opcional"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E2:E62" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E2:E63" type="list">
       <formula1>"Técnico,Funcional,Información"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F2:F62" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F2:F63" type="list">
       <formula1>"Fácil,Media,Difícil"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="G2:G62" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="G2:G63" type="list">
       <formula1>"v1,v2,v3"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/requisitos.xlsx
+++ b/requisitos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="220">
   <si>
     <t xml:space="preserve">Código</t>
   </si>
@@ -56,6 +56,18 @@
 El nombre de usuario debe ser único y el email también para poder llevarse a cabo.</t>
   </si>
   <si>
+    <t xml:space="preserve">Importante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funcional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fácil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v1</t>
+  </si>
+  <si>
     <t xml:space="preserve">R02</t>
   </si>
   <si>
@@ -84,6 +96,9 @@
     <t xml:space="preserve">Permite cambiar los datos personales y la imagen de usuario</t>
   </si>
   <si>
+    <t xml:space="preserve">Media</t>
+  </si>
+  <si>
     <t xml:space="preserve">R05</t>
   </si>
   <si>
@@ -93,6 +108,15 @@
     <t xml:space="preserve">Cuando un usuario es dado de alta podrá acceder a la aplicación pero no compartir contenido ni comentarios hasta verificar el email introducido.</t>
   </si>
   <si>
+    <t xml:space="preserve">Opcional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Difícil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v3</t>
+  </si>
+  <si>
     <t xml:space="preserve">R06</t>
   </si>
   <si>
@@ -100,6 +124,9 @@
   </si>
   <si>
     <t xml:space="preserve">Formulario donde introducir el usuario y la contraseña para acceder a la aplicación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V1</t>
   </si>
   <si>
     <t xml:space="preserve">R07</t>
@@ -149,6 +176,12 @@
     <t xml:space="preserve">Cada usuario puede tener un avatar, en caso de no ser seleccionado se otorga el que existe por defecto.</t>
   </si>
   <si>
+    <t xml:space="preserve">Mínimo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v2</t>
+  </si>
+  <si>
     <t xml:space="preserve">R12</t>
   </si>
   <si>
@@ -195,6 +228,33 @@
   </si>
   <si>
     <t xml:space="preserve">R17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buscar usuario por nick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se pueden buscar usuarios por el nick/apodo que usan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enviar emails con noticias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permite enviar emails a los suscritos en la aplicación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Darse de baja a los emails</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Posibilidad de continuar con la cuenta, pero sin recibir emails</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R20</t>
   </si>
   <si>
     <t xml:space="preserve">Crear Roles de usuarios</t>
@@ -209,7 +269,7 @@
 - especial → Designado manualmente por el administrador para colaborar en la administración o moderación del sitio.</t>
   </si>
   <si>
-    <t xml:space="preserve">R18</t>
+    <t xml:space="preserve">R21</t>
   </si>
   <si>
     <t xml:space="preserve">Crear Rol administrador</t>
@@ -218,7 +278,7 @@
     <t xml:space="preserve">El rol administrador designado al usuario “master” será quien tendrá los máximos permisos de administración del sitio y podrá efectuar cualquier operación en cualquier momento.</t>
   </si>
   <si>
-    <t xml:space="preserve">R19</t>
+    <t xml:space="preserve">R22</t>
   </si>
   <si>
     <t xml:space="preserve">Crear categorías de torrents</t>
@@ -231,7 +291,7 @@
 - Libros</t>
   </si>
   <si>
-    <t xml:space="preserve">R20</t>
+    <t xml:space="preserve">R23</t>
   </si>
   <si>
     <t xml:space="preserve">Agregar torrent</t>
@@ -254,7 +314,7 @@
 - Licencia</t>
   </si>
   <si>
-    <t xml:space="preserve">R21</t>
+    <t xml:space="preserve">R24</t>
   </si>
   <si>
     <t xml:space="preserve">Generar suma de comprobación al torrent</t>
@@ -265,7 +325,7 @@
 Se mostrará cuando se visualice el torrent.</t>
   </si>
   <si>
-    <t xml:space="preserve">R22</t>
+    <t xml:space="preserve">R25</t>
   </si>
   <si>
     <t xml:space="preserve">Añadir imagen a Torrent</t>
@@ -275,7 +335,7 @@
 Recomendado 300x300px proporciones 1:1 y no superar 500KB</t>
   </si>
   <si>
-    <t xml:space="preserve">R23</t>
+    <t xml:space="preserve">R26</t>
   </si>
   <si>
     <t xml:space="preserve">Visualizar Torrent</t>
@@ -285,7 +345,7 @@
 No podrá eliminarse ni modificarse.</t>
   </si>
   <si>
-    <t xml:space="preserve">R24</t>
+    <t xml:space="preserve">R27</t>
   </si>
   <si>
     <t xml:space="preserve">Reportar Torrent </t>
@@ -294,7 +354,7 @@
     <t xml:space="preserve">Reportar torrent con uso indebido llevando a un formulario de envío para describir por qué cree que no es correcto.</t>
   </si>
   <si>
-    <t xml:space="preserve">R25</t>
+    <t xml:space="preserve">R28</t>
   </si>
   <si>
     <t xml:space="preserve">Modificar Torrent</t>
@@ -304,7 +364,7 @@
 El resto de usuarios puede, a través de un formulario, solicitar una modificación que llegará a un administrador.</t>
   </si>
   <si>
-    <t xml:space="preserve">R26</t>
+    <t xml:space="preserve">R29</t>
   </si>
   <si>
     <t xml:space="preserve">Sistema de puntuación de torrents</t>
@@ -314,7 +374,7 @@
 Mostrará la media obtenida junto al torrent.</t>
   </si>
   <si>
-    <t xml:space="preserve">R27</t>
+    <t xml:space="preserve">R30</t>
   </si>
   <si>
     <t xml:space="preserve">Busquedas de torrents</t>
@@ -323,7 +383,7 @@
     <t xml:space="preserve">Búsqueda paginada de torrents por categoría y nombre.</t>
   </si>
   <si>
-    <t xml:space="preserve">R28</t>
+    <t xml:space="preserve">R31</t>
   </si>
   <si>
     <t xml:space="preserve">Mostrar veces que se ha pulsado descargar un torrent</t>
@@ -332,7 +392,7 @@
     <t xml:space="preserve">Cada vez que se pulsa un torrent se registra y cuando se visualiza este se muestra la cantidad de veces que se ha descargado.</t>
   </si>
   <si>
-    <t xml:space="preserve">R29</t>
+    <t xml:space="preserve">R32</t>
   </si>
   <si>
     <t xml:space="preserve">Descargar Torrent</t>
@@ -341,7 +401,7 @@
     <t xml:space="preserve">Al pulsar comenzará la descarga del archivo torrent</t>
   </si>
   <si>
-    <t xml:space="preserve">R30</t>
+    <t xml:space="preserve">R33</t>
   </si>
   <si>
     <t xml:space="preserve">Copiar enlace Magnet al portapapeles</t>
@@ -350,7 +410,7 @@
     <t xml:space="preserve">Al pulsar sobre un icono, se copiará automáticamente el enlace al portapapeles del sistema operativo</t>
   </si>
   <si>
-    <t xml:space="preserve">R31</t>
+    <t xml:space="preserve">R34</t>
   </si>
   <si>
     <t xml:space="preserve">Almacenar cantidad de semillas</t>
@@ -361,7 +421,7 @@
 La comprobación de semillas se llevará a cabo cuando un usuario acceda a visualizar el torrent para su descarga, de forma que no se hará constantemente ni tampoco sobre torrents que nadie use.</t>
   </si>
   <si>
-    <t xml:space="preserve">R32</t>
+    <t xml:space="preserve">R35</t>
   </si>
   <si>
     <t xml:space="preserve">Reportar torrent caído.</t>
@@ -371,7 +431,7 @@
 Además también llegará al usuario que subió en un principio el torrent.</t>
   </si>
   <si>
-    <t xml:space="preserve">R33</t>
+    <t xml:space="preserve">R36</t>
   </si>
   <si>
     <t xml:space="preserve">Crear un comentario</t>
@@ -381,7 +441,7 @@
 Además será paginado en 10 comentario por cada página.</t>
   </si>
   <si>
-    <t xml:space="preserve">R34</t>
+    <t xml:space="preserve">R37</t>
   </si>
   <si>
     <t xml:space="preserve">Modificar Comentario</t>
@@ -390,7 +450,7 @@
     <t xml:space="preserve">Permite modificar comentarios propios</t>
   </si>
   <si>
-    <t xml:space="preserve">R35</t>
+    <t xml:space="preserve">R38</t>
   </si>
   <si>
     <t xml:space="preserve">Eliminar Comentario</t>
@@ -399,7 +459,7 @@
     <t xml:space="preserve">Permite eliminar comentarios propios</t>
   </si>
   <si>
-    <t xml:space="preserve">R36</t>
+    <t xml:space="preserve">R39</t>
   </si>
   <si>
     <t xml:space="preserve">Reportar Comentario</t>
@@ -408,7 +468,7 @@
     <t xml:space="preserve">Un usuario puede marcar un comentario para reportarlo solo una vez. Esto envía una notificación a un administrdor/moderador</t>
   </si>
   <si>
-    <t xml:space="preserve">R37</t>
+    <t xml:space="preserve">R40</t>
   </si>
   <si>
     <t xml:space="preserve">Votar Positivo un comentario</t>
@@ -417,7 +477,7 @@
     <t xml:space="preserve">Los comentarios se pueden votar positivo</t>
   </si>
   <si>
-    <t xml:space="preserve">R38</t>
+    <t xml:space="preserve">R41</t>
   </si>
   <si>
     <t xml:space="preserve">Votar Negativo un comentario</t>
@@ -426,7 +486,7 @@
     <t xml:space="preserve">Los comentarios se pueden votar negativo</t>
   </si>
   <si>
-    <t xml:space="preserve">R39</t>
+    <t xml:space="preserve">R42</t>
   </si>
   <si>
     <t xml:space="preserve">Visualizar comentarios asociados a un torrent</t>
@@ -435,7 +495,7 @@
     <t xml:space="preserve">Cuando se visualiza un torrent aparecerán debajo del mismo los últimos 10 comentarios realizados</t>
   </si>
   <si>
-    <t xml:space="preserve">R40</t>
+    <t xml:space="preserve">R43</t>
   </si>
   <si>
     <t xml:space="preserve">Ordenar comentarios</t>
@@ -447,7 +507,7 @@
 - Importancia según votos</t>
   </si>
   <si>
-    <t xml:space="preserve">R41</t>
+    <t xml:space="preserve">R44</t>
   </si>
   <si>
     <t xml:space="preserve">Los comentarios no pueden superar los 500 caracteres</t>
@@ -456,7 +516,7 @@
     <t xml:space="preserve">Los comentarios no pueden extenderse más de 500 caracteres</t>
   </si>
   <si>
-    <t xml:space="preserve">R42</t>
+    <t xml:space="preserve">R45</t>
   </si>
   <si>
     <t xml:space="preserve">Solo se permite 1 comentario cada 5 minutos</t>
@@ -465,7 +525,7 @@
     <t xml:space="preserve">Un usuario no podrá realizar comentarios seguidos dentro del tiempo indicado (5 minutos en principio)</t>
   </si>
   <si>
-    <t xml:space="preserve">R43</t>
+    <t xml:space="preserve">R46</t>
   </si>
   <si>
     <t xml:space="preserve">Validar HTML5</t>
@@ -474,7 +534,7 @@
     <t xml:space="preserve">Utilizar HMTL correctamente cumpliendo estándares W3C</t>
   </si>
   <si>
-    <t xml:space="preserve">R44</t>
+    <t xml:space="preserve">R47</t>
   </si>
   <si>
     <t xml:space="preserve">Validar CSS3</t>
@@ -483,7 +543,7 @@
     <t xml:space="preserve">Utilizar CSS correctamente cumpliendo estándares W3C</t>
   </si>
   <si>
-    <t xml:space="preserve">R45</t>
+    <t xml:space="preserve">R48</t>
   </si>
   <si>
     <t xml:space="preserve">Validar modularidad</t>
@@ -492,7 +552,7 @@
     <t xml:space="preserve">Asegurar que la aplicación es modular permitiendo reemplazar fácilmente alguna de sus partes o reutilizarla en otro proyecto</t>
   </si>
   <si>
-    <t xml:space="preserve">R46</t>
+    <t xml:space="preserve">R49</t>
   </si>
   <si>
     <t xml:space="preserve">Validar Accesibilidad</t>
@@ -501,7 +561,7 @@
     <t xml:space="preserve">Mínimas reglas de accesibilidad cumplida</t>
   </si>
   <si>
-    <t xml:space="preserve">R47</t>
+    <t xml:space="preserve">R50</t>
   </si>
   <si>
     <t xml:space="preserve">Validar Formularios desde Servidor</t>
@@ -510,7 +570,7 @@
     <t xml:space="preserve">Validar los formularios recibidos en el servidor sin tener en cuenta si ya se han validado en el usuario/cliente</t>
   </si>
   <si>
-    <t xml:space="preserve">R48</t>
+    <t xml:space="preserve">R51</t>
   </si>
   <si>
     <t xml:space="preserve">Validar Formularios desde Cliente</t>
@@ -519,7 +579,7 @@
     <t xml:space="preserve">Validar los formularios antes de ser enviados, por el navegador usuario/cliente</t>
   </si>
   <si>
-    <t xml:space="preserve">R49</t>
+    <t xml:space="preserve">R52</t>
   </si>
   <si>
     <t xml:space="preserve">Utilizar AJAX</t>
@@ -528,7 +588,7 @@
     <t xml:space="preserve">Añadir funcionalidades que hagan uso de Ajax</t>
   </si>
   <si>
-    <t xml:space="preserve">R50</t>
+    <t xml:space="preserve">R53</t>
   </si>
   <si>
     <t xml:space="preserve">Utilizar jQuery</t>
@@ -537,7 +597,7 @@
     <t xml:space="preserve">Añadir funcionalidades que hagan uso de jQuery</t>
   </si>
   <si>
-    <t xml:space="preserve">R51</t>
+    <t xml:space="preserve">R54</t>
   </si>
   <si>
     <t xml:space="preserve">Visualizar maquetación en distintos navegadores web</t>
@@ -546,7 +606,7 @@
     <t xml:space="preserve">Comprobar que cada elemento se encuentra en el lugar que corresponde al ser visualizado en distintos navegadores</t>
   </si>
   <si>
-    <t xml:space="preserve">R52</t>
+    <t xml:space="preserve">R55</t>
   </si>
   <si>
     <t xml:space="preserve">Visualizar diseño en distintos navegadores web</t>
@@ -564,7 +624,7 @@
 - Google Browser (Android)</t>
   </si>
   <si>
-    <t xml:space="preserve">R53</t>
+    <t xml:space="preserve">R56</t>
   </si>
   <si>
     <t xml:space="preserve">Desplegar Aplicación en local</t>
@@ -573,7 +633,7 @@
     <t xml:space="preserve">Desplegar la aplicación en local simulando produción (sin desarrollo para probarla y someterla a tests)</t>
   </si>
   <si>
-    <t xml:space="preserve">R54</t>
+    <t xml:space="preserve">R57</t>
   </si>
   <si>
     <t xml:space="preserve">Desplegar la aplicación en cloud</t>
@@ -582,7 +642,7 @@
     <t xml:space="preserve">Subir y desplegar la aplicación en un servidor remoto para producción</t>
   </si>
   <si>
-    <t xml:space="preserve">R55</t>
+    <t xml:space="preserve">R58</t>
   </si>
   <si>
     <t xml:space="preserve">Mostrar en un lateral torrents mejor valorados</t>
@@ -591,7 +651,7 @@
     <t xml:space="preserve">Los 5 torrents con más puntuación se verán en el lateral siendo accesibles con un click</t>
   </si>
   <si>
-    <t xml:space="preserve">R56</t>
+    <t xml:space="preserve">R59</t>
   </si>
   <si>
     <t xml:space="preserve">Mostrar últimos comentarios en lateral</t>
@@ -600,7 +660,7 @@
     <t xml:space="preserve">Los 5 últimos comentarios se mostrarán en el menú lateral</t>
   </si>
   <si>
-    <t xml:space="preserve">R57</t>
+    <t xml:space="preserve">R60</t>
   </si>
   <si>
     <t xml:space="preserve">Registrar accesos en BD</t>
@@ -609,7 +669,7 @@
     <t xml:space="preserve">Cada vez que un usuario accede (crea una nueva sesión) al sitio web se registra su dirección ip, si está logueado lo asocia a dicho usuario</t>
   </si>
   <si>
-    <t xml:space="preserve">R58</t>
+    <t xml:space="preserve">R61</t>
   </si>
   <si>
     <t xml:space="preserve">Estadísticas Cantidad de descargas totales</t>
@@ -618,7 +678,7 @@
     <t xml:space="preserve">Dibuja en una gráfica el total de descargas de torrents por agregación al mes</t>
   </si>
   <si>
-    <t xml:space="preserve">R59</t>
+    <t xml:space="preserve">R62</t>
   </si>
   <si>
     <t xml:space="preserve">Estadísticas Cantidad de usuarios totales</t>
@@ -627,7 +687,7 @@
     <t xml:space="preserve">Dibuja en una gráfica la estadística con la cantidad de usuarios totales por agregación al mes</t>
   </si>
   <si>
-    <t xml:space="preserve">R60</t>
+    <t xml:space="preserve">R63</t>
   </si>
   <si>
     <t xml:space="preserve">Estadísticas Cantidad de torrents totales</t>
@@ -636,7 +696,7 @@
     <t xml:space="preserve">Dibuja en una gráfica la estadística con el total de torrent totales por agregación al mes</t>
   </si>
   <si>
-    <t xml:space="preserve">R61</t>
+    <t xml:space="preserve">R64</t>
   </si>
   <si>
     <t xml:space="preserve">Exportar estadísticas a CSV</t>
@@ -645,7 +705,7 @@
     <t xml:space="preserve">Estadísticas como la cantidad de usuarios, cantidad de torrents, descargas totales… podrán ser exportadas a un archivo CSV por un administrador</t>
   </si>
   <si>
-    <t xml:space="preserve">R62</t>
+    <t xml:space="preserve">R65</t>
   </si>
   <si>
     <t xml:space="preserve">Enviar estadísticas por email</t>
@@ -654,37 +714,22 @@
     <t xml:space="preserve">Las estadísticas serán enviadas mensualmente por email o manualmente pulsando sobre dicha acción</t>
   </si>
   <si>
-    <t xml:space="preserve">R63</t>
+    <t xml:space="preserve">R66</t>
   </si>
   <si>
     <t xml:space="preserve">Login Google+</t>
   </si>
   <si>
-    <t xml:space="preserve">R64</t>
+    <t xml:space="preserve">Permite acceder a la aplicación mediante cuenta de Google+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R67</t>
   </si>
   <si>
     <t xml:space="preserve">Login Facebook</t>
   </si>
   <si>
     <t xml:space="preserve">Permite acceder a la aplicación mediante cuenta de Facebook</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enviar emails con noticias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Permite enviar emails a los suscritos en la aplicación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Darse de baja a los emails</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Posibilidad de continuar con la cuenta, pero sin recibir emails</t>
   </si>
 </sst>
 </file>
@@ -694,7 +739,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -731,8 +776,23 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFDDDDDD"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFDDDDDD"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -748,7 +808,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCFE7F5"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
     <fill>
@@ -781,6 +841,12 @@
         <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
@@ -823,7 +889,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="57">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -837,7 +903,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -856,6 +922,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -865,7 +935,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -884,12 +954,24 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -909,7 +991,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -929,7 +1011,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -945,7 +1027,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -953,7 +1035,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -969,7 +1051,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -977,7 +1059,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -997,7 +1079,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1013,7 +1095,27 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1029,7 +1131,7 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFCC0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1041,7 +1143,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFFFCCCC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999CC"/>
       <rgbColor rgb="FF993366"/>
@@ -1050,7 +1152,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1093,13 +1195,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.6" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="23.36"/>
@@ -1117,7 +1219,7 @@
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
@@ -1136,1057 +1238,1373 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="13" customFormat="true" ht="49.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
+    <row r="2" s="14" customFormat="true" ht="49.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="12"/>
-    </row>
-    <row r="3" s="13" customFormat="true" ht="40.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+      <c r="D2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="E2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" s="13" customFormat="true" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
+      <c r="G2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" s="14" customFormat="true" ht="40.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="B3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12"/>
+      <c r="C3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" s="14" customFormat="true" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="18.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12"/>
+      <c r="A5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="59.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="12"/>
+      <c r="A6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="38.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" customFormat="false" ht="38.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" customFormat="false" ht="47.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" customFormat="false" ht="40.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" customFormat="false" ht="39.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" customFormat="false" ht="38.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="10" t="s">
+      <c r="G11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" customFormat="false" ht="36.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" customFormat="false" ht="40.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" customFormat="false" ht="36.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" customFormat="false" ht="47.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
+      <c r="E14" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" customFormat="false" ht="35.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" customFormat="false" ht="43.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" customFormat="false" ht="43.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="G17" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" customFormat="false" ht="40.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" customFormat="false" ht="39.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" customFormat="false" ht="36.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" customFormat="false" ht="40.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14" customFormat="false" ht="36.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" customFormat="false" ht="35.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" customFormat="false" ht="43.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" customFormat="false" ht="43.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" customFormat="false" ht="43.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" customFormat="false" ht="43.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" s="23" customFormat="true" ht="160.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="22"/>
+    </row>
+    <row r="22" s="23" customFormat="true" ht="65.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" s="22"/>
+    </row>
+    <row r="23" s="28" customFormat="true" ht="123.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="27"/>
+    </row>
+    <row r="24" s="28" customFormat="true" ht="261.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="27"/>
+    </row>
+    <row r="25" s="28" customFormat="true" ht="53.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" s="27"/>
+    </row>
+    <row r="26" s="28" customFormat="true" ht="44.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H26" s="27"/>
+    </row>
+    <row r="27" s="28" customFormat="true" ht="50.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="27"/>
+    </row>
+    <row r="28" s="28" customFormat="true" ht="38.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="27"/>
+    </row>
+    <row r="29" s="28" customFormat="true" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H29" s="27"/>
+    </row>
+    <row r="30" s="28" customFormat="true" ht="32.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="E30" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="27"/>
+    </row>
+    <row r="31" s="28" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="27"/>
+    </row>
+    <row r="32" s="28" customFormat="true" ht="48.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" customFormat="false" ht="43.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" s="19" customFormat="true" ht="160.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="18"/>
-    </row>
-    <row r="19" s="19" customFormat="true" ht="65.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="18"/>
-    </row>
-    <row r="20" s="24" customFormat="true" ht="123.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="23"/>
-    </row>
-    <row r="21" s="24" customFormat="true" ht="261.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="23"/>
-    </row>
-    <row r="22" s="24" customFormat="true" ht="53.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="23"/>
-    </row>
-    <row r="23" s="24" customFormat="true" ht="44.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="23"/>
-    </row>
-    <row r="24" s="24" customFormat="true" ht="50.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="23"/>
-    </row>
-    <row r="25" s="24" customFormat="true" ht="38.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="23"/>
-    </row>
-    <row r="26" s="24" customFormat="true" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="23"/>
-    </row>
-    <row r="27" s="24" customFormat="true" ht="32.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="23"/>
-    </row>
-    <row r="28" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="23"/>
-    </row>
-    <row r="29" s="24" customFormat="true" ht="48.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="23"/>
-    </row>
-    <row r="30" s="24" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="23"/>
-    </row>
-    <row r="31" s="24" customFormat="true" ht="37.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="23"/>
-    </row>
-    <row r="32" s="24" customFormat="true" ht="201.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="23"/>
-    </row>
-    <row r="33" s="24" customFormat="true" ht="60.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="23"/>
-    </row>
-    <row r="34" s="29" customFormat="true" ht="62.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B34" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="28"/>
-    </row>
-    <row r="35" s="29" customFormat="true" ht="19.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="28"/>
-    </row>
-    <row r="36" s="29" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B36" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="C36" s="26" t="s">
+      <c r="H32" s="27"/>
+    </row>
+    <row r="33" s="28" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="28"/>
-    </row>
-    <row r="37" s="29" customFormat="true" ht="40.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="8" t="s">
+      <c r="B33" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="C33" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="D33" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="27"/>
+    </row>
+    <row r="34" s="28" customFormat="true" ht="37.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="28"/>
-    </row>
-    <row r="38" s="29" customFormat="true" ht="39.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="8" t="s">
+      <c r="B34" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="B38" s="25" t="s">
+      <c r="C34" s="25" t="s">
         <v>117</v>
       </c>
+      <c r="D34" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H34" s="27"/>
+    </row>
+    <row r="35" s="28" customFormat="true" ht="201.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="H35" s="27"/>
+    </row>
+    <row r="36" s="28" customFormat="true" ht="60.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36" s="27"/>
+    </row>
+    <row r="37" s="33" customFormat="true" ht="62.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="32"/>
+    </row>
+    <row r="38" s="33" customFormat="true" ht="19.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>128</v>
+      </c>
       <c r="C38" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="28"/>
-    </row>
-    <row r="39" s="29" customFormat="true" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B39" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="28"/>
-    </row>
-    <row r="40" s="29" customFormat="true" ht="36.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="B40" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="28"/>
-    </row>
-    <row r="41" s="29" customFormat="true" ht="79.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B41" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="C41" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="28"/>
-    </row>
-    <row r="42" s="29" customFormat="true" ht="60.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B42" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="C42" s="26" t="s">
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="32"/>
+    </row>
+    <row r="39" s="33" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="28"/>
-    </row>
-    <row r="43" s="29" customFormat="true" ht="45.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="8" t="s">
+      <c r="B39" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="B43" s="25" t="s">
+      <c r="C39" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C43" s="26" t="s">
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="32"/>
+    </row>
+    <row r="40" s="33" customFormat="true" ht="40.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="28"/>
-    </row>
-    <row r="44" s="35" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="8" t="s">
+      <c r="B40" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="B44" s="31" t="s">
+      <c r="C40" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C44" s="32" t="s">
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="32"/>
+    </row>
+    <row r="41" s="33" customFormat="true" ht="39.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="34"/>
-    </row>
-    <row r="45" s="35" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="8" t="s">
+      <c r="B41" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="B45" s="31" t="s">
+      <c r="C41" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="C45" s="32" t="s">
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="32"/>
+    </row>
+    <row r="42" s="33" customFormat="true" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="34"/>
-    </row>
-    <row r="46" s="35" customFormat="true" ht="40.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="8" t="s">
+      <c r="B42" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="B46" s="31" t="s">
+      <c r="C42" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="C46" s="32" t="s">
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="32"/>
+    </row>
+    <row r="43" s="33" customFormat="true" ht="36.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="34"/>
-    </row>
-    <row r="47" s="35" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="8" t="s">
+      <c r="B43" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="B47" s="31" t="s">
+      <c r="C43" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="C47" s="32" t="s">
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="32"/>
+    </row>
+    <row r="44" s="33" customFormat="true" ht="79.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="D47" s="33"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="34"/>
-    </row>
-    <row r="48" s="35" customFormat="true" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="8" t="s">
+      <c r="B44" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="B48" s="31" t="s">
+      <c r="C44" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="C48" s="32" t="s">
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="32"/>
+    </row>
+    <row r="45" s="33" customFormat="true" ht="60.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="34"/>
-    </row>
-    <row r="49" s="35" customFormat="true" ht="40.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="8" t="s">
+      <c r="B45" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="B49" s="31" t="s">
+      <c r="C45" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="C49" s="32" t="s">
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="32"/>
+    </row>
+    <row r="46" s="33" customFormat="true" ht="45.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="34"/>
-    </row>
-    <row r="50" s="35" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="8" t="s">
+      <c r="B46" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="B50" s="31" t="s">
+      <c r="C46" s="30" t="s">
         <v>153</v>
       </c>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="32"/>
+    </row>
+    <row r="47" s="39" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B47" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="C47" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="38"/>
+    </row>
+    <row r="48" s="39" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B48" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="C48" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="38"/>
+    </row>
+    <row r="49" s="39" customFormat="true" ht="40.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B49" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="C49" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="38"/>
+    </row>
+    <row r="50" s="39" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B50" s="35" t="s">
+        <v>164</v>
+      </c>
       <c r="C50" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="34"/>
-    </row>
-    <row r="51" s="35" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="B51" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="C51" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="34"/>
-    </row>
-    <row r="52" s="35" customFormat="true" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B52" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="C52" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="34"/>
-    </row>
-    <row r="53" s="35" customFormat="true" ht="186.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="B53" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="C53" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="34"/>
-    </row>
-    <row r="54" s="41" customFormat="true" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="B54" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="C54" s="38" t="s">
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="38"/>
+    </row>
+    <row r="51" s="39" customFormat="true" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="D54" s="39"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="39"/>
-      <c r="H54" s="40"/>
-    </row>
-    <row r="55" s="41" customFormat="true" ht="41.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="8" t="s">
+      <c r="B51" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="B55" s="37" t="s">
+      <c r="C51" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="C55" s="38" t="s">
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="38"/>
+    </row>
+    <row r="52" s="39" customFormat="true" ht="40.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="40"/>
-    </row>
-    <row r="56" s="41" customFormat="true" ht="39.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="8" t="s">
+      <c r="B52" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="B56" s="37" t="s">
+      <c r="C52" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="C56" s="38" t="s">
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="38"/>
+    </row>
+    <row r="53" s="39" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="D56" s="39"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="40"/>
-    </row>
-    <row r="57" s="41" customFormat="true" ht="36.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="8" t="s">
+      <c r="B53" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="B57" s="37" t="s">
+      <c r="C53" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C57" s="38" t="s">
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="38"/>
+    </row>
+    <row r="54" s="39" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="D57" s="39"/>
-      <c r="E57" s="39"/>
-      <c r="F57" s="39"/>
-      <c r="G57" s="39"/>
-      <c r="H57" s="40"/>
-    </row>
-    <row r="58" s="41" customFormat="true" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="8" t="s">
+      <c r="B54" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="B58" s="37" t="s">
+      <c r="C54" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="C58" s="38" t="s">
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="38"/>
+    </row>
+    <row r="55" s="39" customFormat="true" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="D58" s="39"/>
-      <c r="E58" s="39"/>
-      <c r="F58" s="39"/>
-      <c r="G58" s="39"/>
-      <c r="H58" s="40"/>
-    </row>
-    <row r="59" s="46" customFormat="true" ht="37.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="8" t="s">
+      <c r="B55" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="B59" s="42" t="s">
+      <c r="C55" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="C59" s="43" t="s">
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="38"/>
+    </row>
+    <row r="56" s="39" customFormat="true" ht="186.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="D59" s="44"/>
-      <c r="E59" s="44"/>
-      <c r="F59" s="44"/>
-      <c r="G59" s="44"/>
-      <c r="H59" s="45"/>
-    </row>
-    <row r="60" s="46" customFormat="true" ht="40.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="8" t="s">
+      <c r="B56" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="B60" s="42" t="s">
+      <c r="C56" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="C60" s="43" t="s">
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="38"/>
+    </row>
+    <row r="57" s="45" customFormat="true" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="D60" s="44"/>
-      <c r="E60" s="44"/>
-      <c r="F60" s="44"/>
-      <c r="G60" s="44"/>
-      <c r="H60" s="45"/>
-    </row>
-    <row r="61" s="46" customFormat="true" ht="38.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="8" t="s">
+      <c r="B57" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="B61" s="42" t="s">
+      <c r="C57" s="42" t="s">
         <v>186</v>
       </c>
-      <c r="C61" s="47" t="s">
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="44"/>
+    </row>
+    <row r="58" s="45" customFormat="true" ht="41.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="D61" s="44"/>
-      <c r="E61" s="44"/>
-      <c r="F61" s="44"/>
-      <c r="G61" s="44"/>
-      <c r="H61" s="45"/>
-    </row>
-    <row r="62" s="46" customFormat="true" ht="56.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="8" t="s">
+      <c r="B58" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="B62" s="42" t="s">
+      <c r="C58" s="42" t="s">
         <v>189</v>
       </c>
+      <c r="D58" s="43"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="44"/>
+    </row>
+    <row r="59" s="45" customFormat="true" ht="39.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B59" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="C59" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="44"/>
+    </row>
+    <row r="60" s="45" customFormat="true" ht="36.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B60" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="C60" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="D60" s="43"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="44"/>
+    </row>
+    <row r="61" s="45" customFormat="true" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B61" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="C61" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="43"/>
+      <c r="H61" s="44"/>
+    </row>
+    <row r="62" s="50" customFormat="true" ht="37.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B62" s="46" t="s">
+        <v>200</v>
+      </c>
       <c r="C62" s="47" t="s">
-        <v>190</v>
-      </c>
-      <c r="D62" s="44"/>
-      <c r="E62" s="44"/>
-      <c r="F62" s="44"/>
-      <c r="G62" s="44"/>
-      <c r="H62" s="45"/>
-    </row>
-    <row r="63" s="46" customFormat="true" ht="56.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="B63" s="42" t="s">
-        <v>192</v>
+        <v>201</v>
+      </c>
+      <c r="D62" s="48"/>
+      <c r="E62" s="48"/>
+      <c r="F62" s="48"/>
+      <c r="G62" s="48"/>
+      <c r="H62" s="49"/>
+    </row>
+    <row r="63" s="50" customFormat="true" ht="40.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B63" s="46" t="s">
+        <v>203</v>
       </c>
       <c r="C63" s="47" t="s">
-        <v>193</v>
-      </c>
-      <c r="D63" s="44"/>
-      <c r="E63" s="44"/>
-      <c r="F63" s="44"/>
-      <c r="G63" s="44"/>
-      <c r="H63" s="45"/>
-    </row>
-    <row r="64" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C67" s="3" t="s">
         <v>204</v>
       </c>
+      <c r="D63" s="48"/>
+      <c r="E63" s="48"/>
+      <c r="F63" s="48"/>
+      <c r="G63" s="48"/>
+      <c r="H63" s="49"/>
+    </row>
+    <row r="64" s="50" customFormat="true" ht="38.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B64" s="46" t="s">
+        <v>206</v>
+      </c>
+      <c r="C64" s="51" t="s">
+        <v>207</v>
+      </c>
+      <c r="D64" s="48"/>
+      <c r="E64" s="48"/>
+      <c r="F64" s="48"/>
+      <c r="G64" s="48"/>
+      <c r="H64" s="49"/>
+    </row>
+    <row r="65" s="50" customFormat="true" ht="56.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B65" s="46" t="s">
+        <v>209</v>
+      </c>
+      <c r="C65" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="D65" s="48"/>
+      <c r="E65" s="48"/>
+      <c r="F65" s="48"/>
+      <c r="G65" s="48"/>
+      <c r="H65" s="49"/>
+    </row>
+    <row r="66" s="50" customFormat="true" ht="56.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B66" s="46" t="s">
+        <v>212</v>
+      </c>
+      <c r="C66" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="D66" s="48"/>
+      <c r="E66" s="48"/>
+      <c r="F66" s="48"/>
+      <c r="G66" s="48"/>
+      <c r="H66" s="49"/>
+    </row>
+    <row r="67" s="55" customFormat="true" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B67" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="C67" s="53" t="s">
+        <v>216</v>
+      </c>
+      <c r="D67" s="54"/>
+      <c r="E67" s="54"/>
+      <c r="F67" s="54"/>
+      <c r="G67" s="54"/>
+      <c r="H67" s="54"/>
+    </row>
+    <row r="68" s="55" customFormat="true" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B68" s="52" t="s">
+        <v>218</v>
+      </c>
+      <c r="C68" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="D68" s="54"/>
+      <c r="E68" s="54"/>
+      <c r="F68" s="54"/>
+      <c r="G68" s="54"/>
+      <c r="H68" s="54"/>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D2:D63" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D2:D66" type="list">
       <formula1>"Mínimo,Importante,Opcional"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E2:E63" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E2:E66" type="list">
       <formula1>"Técnico,Funcional,Información"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F2:F63" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F2:F66" type="list">
       <formula1>"Fácil,Media,Difícil"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="G2:G63" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="G2:G66" type="list">
       <formula1>"v1,v2,v3"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/requisitos.xlsx
+++ b/requisitos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="220">
   <si>
     <t xml:space="preserve">Código</t>
   </si>
@@ -1197,8 +1197,8 @@
   </sheetPr>
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A39" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F46" activeCellId="0" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.6" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2088,10 +2088,18 @@
       <c r="C37" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
+      <c r="D37" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" s="31" t="s">
+        <v>51</v>
+      </c>
       <c r="H37" s="32"/>
     </row>
     <row r="38" s="33" customFormat="true" ht="19.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2104,13 +2112,21 @@
       <c r="C38" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
+      <c r="D38" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" s="31" t="s">
+        <v>51</v>
+      </c>
       <c r="H38" s="32"/>
     </row>
-    <row r="39" s="33" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" s="33" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="s">
         <v>130</v>
       </c>
@@ -2120,10 +2136,18 @@
       <c r="C39" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
+      <c r="D39" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G39" s="31" t="s">
+        <v>51</v>
+      </c>
       <c r="H39" s="32"/>
     </row>
     <row r="40" s="33" customFormat="true" ht="40.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2136,10 +2160,18 @@
       <c r="C40" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
+      <c r="D40" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="G40" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="H40" s="32"/>
     </row>
     <row r="41" s="33" customFormat="true" ht="39.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2152,10 +2184,18 @@
       <c r="C41" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
+      <c r="D41" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="H41" s="32"/>
     </row>
     <row r="42" s="33" customFormat="true" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2168,10 +2208,18 @@
       <c r="C42" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
+      <c r="D42" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="H42" s="32"/>
     </row>
     <row r="43" s="33" customFormat="true" ht="36.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2184,10 +2232,18 @@
       <c r="C43" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
+      <c r="D43" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="31" t="s">
+        <v>51</v>
+      </c>
       <c r="H43" s="32"/>
     </row>
     <row r="44" s="33" customFormat="true" ht="79.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2200,10 +2256,18 @@
       <c r="C44" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
+      <c r="D44" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E44" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G44" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="H44" s="32"/>
     </row>
     <row r="45" s="33" customFormat="true" ht="60.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2216,10 +2280,18 @@
       <c r="C45" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
+      <c r="D45" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E45" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="31" t="s">
+        <v>51</v>
+      </c>
       <c r="H45" s="32"/>
     </row>
     <row r="46" s="33" customFormat="true" ht="45.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2232,10 +2304,18 @@
       <c r="C46" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="D46" s="31"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31"/>
+      <c r="D46" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="H46" s="32"/>
     </row>
     <row r="47" s="39" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/requisitos.xlsx
+++ b/requisitos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="221">
   <si>
     <t xml:space="preserve">Código</t>
   </si>
@@ -633,6 +633,9 @@
     <t xml:space="preserve">Desplegar la aplicación en local simulando produción (sin desarrollo para probarla y someterla a tests)</t>
   </si>
   <si>
+    <t xml:space="preserve">Técnico</t>
+  </si>
+  <si>
     <t xml:space="preserve">R57</t>
   </si>
   <si>
@@ -739,7 +742,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -777,19 +780,11 @@
       <family val="2"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="10"/>
       <color rgb="FFDDDDDD"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFDDDDDD"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -889,7 +884,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1102,7 +1097,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1112,10 +1107,6 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1195,10 +1186,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A39" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F46" activeCellId="0" sqref="F46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A63" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C69" activeCellId="0" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.6" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2318,7 +2309,7 @@
       </c>
       <c r="H46" s="32"/>
     </row>
-    <row r="47" s="39" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" s="39" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="s">
         <v>154</v>
       </c>
@@ -2328,13 +2319,21 @@
       <c r="C47" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
+      <c r="D47" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="G47" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="H47" s="38"/>
     </row>
-    <row r="48" s="39" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" s="39" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="s">
         <v>157</v>
       </c>
@@ -2344,10 +2343,18 @@
       <c r="C48" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
+      <c r="D48" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="G48" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="H48" s="38"/>
     </row>
     <row r="49" s="39" customFormat="true" ht="40.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2360,13 +2367,21 @@
       <c r="C49" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
+      <c r="D49" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="G49" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="H49" s="38"/>
     </row>
-    <row r="50" s="39" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" s="39" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="s">
         <v>163</v>
       </c>
@@ -2376,10 +2391,18 @@
       <c r="C50" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="D50" s="37"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37"/>
+      <c r="D50" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="G50" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="H50" s="38"/>
     </row>
     <row r="51" s="39" customFormat="true" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2392,10 +2415,18 @@
       <c r="C51" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="D51" s="37"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="37"/>
+      <c r="D51" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="G51" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="H51" s="38"/>
     </row>
     <row r="52" s="39" customFormat="true" ht="40.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2408,13 +2439,21 @@
       <c r="C52" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="D52" s="37"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="37"/>
+      <c r="D52" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="G52" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="H52" s="38"/>
     </row>
-    <row r="53" s="39" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" s="39" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="9" t="s">
         <v>172</v>
       </c>
@@ -2424,13 +2463,21 @@
       <c r="C53" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="D53" s="37"/>
-      <c r="E53" s="37"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="37"/>
+      <c r="D53" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="G53" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="H53" s="38"/>
     </row>
-    <row r="54" s="39" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" s="39" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="9" t="s">
         <v>175</v>
       </c>
@@ -2440,10 +2487,18 @@
       <c r="C54" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="D54" s="37"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="37"/>
+      <c r="D54" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="G54" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="H54" s="38"/>
     </row>
     <row r="55" s="39" customFormat="true" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2456,10 +2511,18 @@
       <c r="C55" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="D55" s="37"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="37"/>
+      <c r="D55" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="G55" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="H55" s="38"/>
     </row>
     <row r="56" s="39" customFormat="true" ht="186.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2472,10 +2535,18 @@
       <c r="C56" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
+      <c r="D56" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="G56" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="H56" s="38"/>
     </row>
     <row r="57" s="45" customFormat="true" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2488,203 +2559,319 @@
       <c r="C57" s="42" t="s">
         <v>186</v>
       </c>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
+      <c r="D57" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="E57" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="F57" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="H57" s="44"/>
     </row>
     <row r="58" s="45" customFormat="true" ht="41.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B58" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="C58" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="D58" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="B58" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="C58" s="42" t="s">
-        <v>189</v>
-      </c>
-      <c r="D58" s="43"/>
-      <c r="E58" s="43"/>
-      <c r="F58" s="43"/>
-      <c r="G58" s="43"/>
+      <c r="F58" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="H58" s="44"/>
     </row>
     <row r="59" s="45" customFormat="true" ht="39.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B59" s="41" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C59" s="42" t="s">
-        <v>192</v>
-      </c>
-      <c r="D59" s="43"/>
-      <c r="E59" s="43"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="43"/>
+        <v>193</v>
+      </c>
+      <c r="D59" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="E59" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" s="43" t="s">
+        <v>51</v>
+      </c>
       <c r="H59" s="44"/>
     </row>
     <row r="60" s="45" customFormat="true" ht="36.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B60" s="41" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C60" s="42" t="s">
-        <v>195</v>
-      </c>
-      <c r="D60" s="43"/>
-      <c r="E60" s="43"/>
-      <c r="F60" s="43"/>
-      <c r="G60" s="43"/>
+        <v>196</v>
+      </c>
+      <c r="D60" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" s="43" t="s">
+        <v>51</v>
+      </c>
       <c r="H60" s="44"/>
     </row>
     <row r="61" s="45" customFormat="true" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B61" s="41" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C61" s="42" t="s">
-        <v>198</v>
-      </c>
-      <c r="D61" s="43"/>
-      <c r="E61" s="43"/>
-      <c r="F61" s="43"/>
-      <c r="G61" s="43"/>
+        <v>199</v>
+      </c>
+      <c r="D61" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="E61" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="G61" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="H61" s="44"/>
     </row>
     <row r="62" s="50" customFormat="true" ht="37.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B62" s="46" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C62" s="47" t="s">
-        <v>201</v>
-      </c>
-      <c r="D62" s="48"/>
-      <c r="E62" s="48"/>
-      <c r="F62" s="48"/>
-      <c r="G62" s="48"/>
+        <v>202</v>
+      </c>
+      <c r="D62" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E62" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62" s="48" t="s">
+        <v>30</v>
+      </c>
       <c r="H62" s="49"/>
     </row>
     <row r="63" s="50" customFormat="true" ht="40.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B63" s="46" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C63" s="47" t="s">
-        <v>204</v>
-      </c>
-      <c r="D63" s="48"/>
-      <c r="E63" s="48"/>
-      <c r="F63" s="48"/>
-      <c r="G63" s="48"/>
+        <v>205</v>
+      </c>
+      <c r="D63" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E63" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" s="48" t="s">
+        <v>30</v>
+      </c>
       <c r="H63" s="49"/>
     </row>
     <row r="64" s="50" customFormat="true" ht="38.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B64" s="46" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C64" s="51" t="s">
-        <v>207</v>
-      </c>
-      <c r="D64" s="48"/>
-      <c r="E64" s="48"/>
-      <c r="F64" s="48"/>
-      <c r="G64" s="48"/>
+        <v>208</v>
+      </c>
+      <c r="D64" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E64" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64" s="48" t="s">
+        <v>30</v>
+      </c>
       <c r="H64" s="49"/>
     </row>
     <row r="65" s="50" customFormat="true" ht="56.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B65" s="46" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C65" s="51" t="s">
-        <v>210</v>
-      </c>
-      <c r="D65" s="48"/>
-      <c r="E65" s="48"/>
-      <c r="F65" s="48"/>
-      <c r="G65" s="48"/>
+        <v>211</v>
+      </c>
+      <c r="D65" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E65" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="G65" s="48" t="s">
+        <v>30</v>
+      </c>
       <c r="H65" s="49"/>
     </row>
     <row r="66" s="50" customFormat="true" ht="56.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B66" s="46" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C66" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="D66" s="48"/>
-      <c r="E66" s="48"/>
-      <c r="F66" s="48"/>
-      <c r="G66" s="48"/>
+        <v>214</v>
+      </c>
+      <c r="D66" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E66" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="G66" s="48" t="s">
+        <v>30</v>
+      </c>
       <c r="H66" s="49"/>
     </row>
-    <row r="67" s="55" customFormat="true" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" s="55" customFormat="true" ht="56.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B67" s="52" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C67" s="53" t="s">
-        <v>216</v>
-      </c>
-      <c r="D67" s="54"/>
-      <c r="E67" s="54"/>
-      <c r="F67" s="54"/>
-      <c r="G67" s="54"/>
+        <v>217</v>
+      </c>
+      <c r="D67" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="E67" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="G67" s="54" t="s">
+        <v>30</v>
+      </c>
       <c r="H67" s="54"/>
     </row>
-    <row r="68" s="55" customFormat="true" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" s="55" customFormat="true" ht="56.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B68" s="52" t="s">
-        <v>218</v>
-      </c>
-      <c r="C68" s="56" t="s">
         <v>219</v>
       </c>
-      <c r="D68" s="54"/>
-      <c r="E68" s="54"/>
-      <c r="F68" s="54"/>
-      <c r="G68" s="54"/>
+      <c r="C68" s="53" t="s">
+        <v>220</v>
+      </c>
+      <c r="D68" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="E68" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="G68" s="54" t="s">
+        <v>30</v>
+      </c>
       <c r="H68" s="54"/>
+    </row>
+    <row r="69" s="55" customFormat="true" ht="84.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="9"/>
+      <c r="B69" s="52"/>
+      <c r="C69" s="53"/>
+      <c r="D69" s="54"/>
+      <c r="E69" s="54"/>
+      <c r="F69" s="54"/>
+      <c r="G69" s="54"/>
+      <c r="H69" s="54"/>
+    </row>
+    <row r="70" s="55" customFormat="true" ht="56.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="9"/>
+      <c r="B70" s="52"/>
+      <c r="C70" s="53"/>
+      <c r="D70" s="54"/>
+      <c r="E70" s="54"/>
+      <c r="F70" s="54"/>
+      <c r="G70" s="54"/>
+      <c r="H70" s="54"/>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D2:D66" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D2:D70" type="list">
       <formula1>"Mínimo,Importante,Opcional"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E2:E66" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E2:E70" type="list">
       <formula1>"Técnico,Funcional,Información"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F2:F66" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F2:F70" type="list">
       <formula1>"Fácil,Media,Difícil"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="G2:G66" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="G2:G70" type="list">
       <formula1>"v1,v2,v3"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/requisitos.xlsx
+++ b/requisitos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="239">
   <si>
     <t xml:space="preserve">Código</t>
   </si>
@@ -720,19 +720,76 @@
     <t xml:space="preserve">R66</t>
   </si>
   <si>
+    <t xml:space="preserve">Exportar estadísticas a PDF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estadísticas como la cantidad de usuarios, cantidad de torrents, descargas totales… podrán ser exportadas a un archivo PDF por un administrador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R67</t>
+  </si>
+  <si>
     <t xml:space="preserve">Login Google+</t>
   </si>
   <si>
     <t xml:space="preserve">Permite acceder a la aplicación mediante cuenta de Google+</t>
   </si>
   <si>
-    <t xml:space="preserve">R67</t>
+    <t xml:space="preserve">R68</t>
   </si>
   <si>
     <t xml:space="preserve">Login Facebook</t>
   </si>
   <si>
     <t xml:space="preserve">Permite acceder a la aplicación mediante cuenta de Facebook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asociar con API Twitter para crear bot automatizado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asociar con la API de twitter para desarrolladores e integrar con un bot la aplicación de forma que cada hora publique automáticamente un resumen de la actividad:
+- Últimas subidas → enlace y titulos más descargados
+- Lo más descargado del mes → enlace y títulos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asociar con API Telegram para crear bot automatizado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asociar con la API de telegram para crear un bot que publique en un canal de forma automatizada los mismos resúmenes a cada hora.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exportar BD en plano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permite al administrador exportar la BD completa en texto plano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exportar BD en CSV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permite al administrador exportar la BD completa en formato CSV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloquear posibles torrents peligrosos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detectar si el archivo que hace referencia el torrent es peligroso o incumple las políticas del sitio.
+En principio esto es difícil de lograr y se filtrará extensiones para bloquear formatos de vídeo y binarios como: mp4,avi,flv,bat,exe…</t>
   </si>
 </sst>
 </file>
@@ -742,7 +799,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -785,6 +842,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFDDDDDD"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -884,7 +947,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1107,6 +1170,10 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1186,10 +1253,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A63" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C69" activeCellId="0" sqref="C69"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I74" activeCellId="0" sqref="I74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.6" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2680,7 +2747,7 @@
         <v>202</v>
       </c>
       <c r="D62" s="48" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="E62" s="48" t="s">
         <v>12</v>
@@ -2704,7 +2771,7 @@
         <v>205</v>
       </c>
       <c r="D63" s="48" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="E63" s="48" t="s">
         <v>12</v>
@@ -2728,7 +2795,7 @@
         <v>208</v>
       </c>
       <c r="D64" s="48" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="E64" s="48" t="s">
         <v>12</v>
@@ -2776,7 +2843,7 @@
         <v>214</v>
       </c>
       <c r="D66" s="48" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="E66" s="48" t="s">
         <v>12</v>
@@ -2789,29 +2856,29 @@
       </c>
       <c r="H66" s="49"/>
     </row>
-    <row r="67" s="55" customFormat="true" ht="56.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" s="50" customFormat="true" ht="56.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="B67" s="52" t="s">
+      <c r="B67" s="46" t="s">
         <v>216</v>
       </c>
-      <c r="C67" s="53" t="s">
+      <c r="C67" s="47" t="s">
         <v>217</v>
       </c>
-      <c r="D67" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="E67" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="F67" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="G67" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="H67" s="54"/>
+      <c r="D67" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E67" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="G67" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="H67" s="49"/>
     </row>
     <row r="68" s="55" customFormat="true" ht="56.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="9" t="s">
@@ -2837,41 +2904,165 @@
       </c>
       <c r="H68" s="54"/>
     </row>
-    <row r="69" s="55" customFormat="true" ht="84.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="9"/>
-      <c r="B69" s="52"/>
-      <c r="C69" s="53"/>
-      <c r="D69" s="54"/>
-      <c r="E69" s="54"/>
-      <c r="F69" s="54"/>
-      <c r="G69" s="54"/>
+    <row r="69" s="55" customFormat="true" ht="56.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B69" s="52" t="s">
+        <v>222</v>
+      </c>
+      <c r="C69" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="D69" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="E69" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="G69" s="54" t="s">
+        <v>30</v>
+      </c>
       <c r="H69" s="54"/>
     </row>
-    <row r="70" s="55" customFormat="true" ht="56.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="9"/>
-      <c r="B70" s="52"/>
-      <c r="C70" s="53"/>
-      <c r="D70" s="54"/>
-      <c r="E70" s="54"/>
-      <c r="F70" s="54"/>
-      <c r="G70" s="54"/>
+    <row r="70" s="55" customFormat="true" ht="84.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B70" s="52" t="s">
+        <v>225</v>
+      </c>
+      <c r="C70" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="D70" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="E70" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="G70" s="54" t="s">
+        <v>30</v>
+      </c>
       <c r="H70" s="54"/>
+    </row>
+    <row r="71" s="55" customFormat="true" ht="56.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B71" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="C71" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="D71" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="E71" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="G71" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="H71" s="54"/>
+    </row>
+    <row r="72" s="55" customFormat="true" ht="56.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="B72" s="56" t="s">
+        <v>231</v>
+      </c>
+      <c r="C72" s="53" t="s">
+        <v>232</v>
+      </c>
+      <c r="D72" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="E72" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="G72" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="H72" s="54"/>
+    </row>
+    <row r="73" s="55" customFormat="true" ht="56.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B73" s="56" t="s">
+        <v>234</v>
+      </c>
+      <c r="C73" s="53" t="s">
+        <v>235</v>
+      </c>
+      <c r="D73" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="E73" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="G73" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="H73" s="54"/>
+    </row>
+    <row r="74" s="55" customFormat="true" ht="85.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B74" s="56" t="s">
+        <v>237</v>
+      </c>
+      <c r="C74" s="53" t="s">
+        <v>238</v>
+      </c>
+      <c r="D74" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="E74" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="G74" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="H74" s="54"/>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D2:D70" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D2:D74" type="list">
       <formula1>"Mínimo,Importante,Opcional"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E2:E70" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E2:E74" type="list">
       <formula1>"Técnico,Funcional,Información"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F2:F70" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F2:F74" type="list">
       <formula1>"Fácil,Media,Difícil"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="G2:G70" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="G2:G74" type="list">
       <formula1>"v1,v2,v3"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/requisitos.xlsx
+++ b/requisitos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="248">
   <si>
     <t xml:space="preserve">Código</t>
   </si>
@@ -791,6 +791,33 @@
     <t xml:space="preserve">Detectar si el archivo que hace referencia el torrent es peligroso o incumple las políticas del sitio.
 En principio esto es difícil de lograr y se filtrará extensiones para bloquear formatos de vídeo y binarios como: mp4,avi,flv,bat,exe…</t>
   </si>
+  <si>
+    <t xml:space="preserve">R74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integrar torrents en trackers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decirle a trackers importantes que existe cada torrent almacenado en el sitio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema de licencias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementar sistema de licencias que se muestre al visualizar un torrent, para conocer la licencia que dispone el archivo que vamos a descargar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demanda de torrent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crear apartado donde los usuarios puedan demandar un torrent específico que aún no haya sido subido a la plataforma</t>
+  </si>
 </sst>
 </file>
 
@@ -799,7 +826,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -832,22 +859,10 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FFDDDDDD"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFDDDDDD"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -947,7 +962,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="50">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1012,18 +1027,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1084,10 +1087,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1108,10 +1107,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1136,7 +1131,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1152,28 +1147,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1253,10 +1240,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I74" activeCellId="0" sqref="I74"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J70" activeCellId="0" sqref="J70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.6" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1344,7 +1331,7 @@
       </c>
       <c r="H3" s="13"/>
     </row>
-    <row r="4" s="14" customFormat="true" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="19.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
         <v>18</v>
       </c>
@@ -1411,7 +1398,7 @@
       <c r="F6" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="12" t="s">
         <v>30</v>
       </c>
       <c r="H6" s="13"/>
@@ -1435,7 +1422,7 @@
       <c r="F7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="12" t="s">
         <v>34</v>
       </c>
       <c r="H7" s="13"/>
@@ -1459,7 +1446,7 @@
       <c r="F8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="12" t="s">
         <v>34</v>
       </c>
       <c r="H8" s="13"/>
@@ -1483,7 +1470,7 @@
       <c r="F9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="12" t="s">
         <v>34</v>
       </c>
       <c r="H9" s="13"/>
@@ -1507,7 +1494,7 @@
       <c r="F10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="12" t="s">
         <v>30</v>
       </c>
       <c r="H10" s="13"/>
@@ -1684,7 +1671,7 @@
       <c r="A18" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="10" t="s">
         <v>68</v>
       </c>
       <c r="C18" s="11" t="s">
@@ -1708,10 +1695,10 @@
       <c r="A19" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="11" t="s">
         <v>72</v>
       </c>
       <c r="D19" s="12" t="s">
@@ -1732,10 +1719,10 @@
       <c r="A20" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="11" t="s">
         <v>75</v>
       </c>
       <c r="D20" s="12" t="s">
@@ -1752,1317 +1739,1389 @@
       </c>
       <c r="H20" s="13"/>
     </row>
-    <row r="21" s="23" customFormat="true" ht="160.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" s="20" customFormat="true" ht="160.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="21" t="s">
+      <c r="D21" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="21" t="s">
+      <c r="G21" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="H21" s="22"/>
-    </row>
-    <row r="22" s="23" customFormat="true" ht="65.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H21" s="19"/>
+    </row>
+    <row r="22" s="20" customFormat="true" ht="65.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="21" t="s">
+      <c r="D22" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="21" t="s">
+      <c r="G22" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="H22" s="22"/>
-    </row>
-    <row r="23" s="28" customFormat="true" ht="123.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H22" s="19"/>
+    </row>
+    <row r="23" s="25" customFormat="true" ht="123.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="D23" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="26" t="s">
+      <c r="D23" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="26" t="s">
+      <c r="G23" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="27"/>
-    </row>
-    <row r="24" s="28" customFormat="true" ht="261.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H23" s="24"/>
+    </row>
+    <row r="24" s="25" customFormat="true" ht="261.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="26" t="s">
+      <c r="D24" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="26" t="s">
+      <c r="G24" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="27"/>
-    </row>
-    <row r="25" s="28" customFormat="true" ht="53.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H24" s="24"/>
+    </row>
+    <row r="25" s="25" customFormat="true" ht="53.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="D25" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="26" t="s">
+      <c r="D25" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G25" s="26" t="s">
+      <c r="G25" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="H25" s="27"/>
-    </row>
-    <row r="26" s="28" customFormat="true" ht="44.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H25" s="24"/>
+    </row>
+    <row r="26" s="25" customFormat="true" ht="44.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="D26" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="26" t="s">
+      <c r="D26" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="26" t="s">
+      <c r="G26" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="H26" s="27"/>
-    </row>
-    <row r="27" s="28" customFormat="true" ht="50.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H26" s="24"/>
+    </row>
+    <row r="27" s="25" customFormat="true" ht="50.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="D27" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="26" t="s">
+      <c r="D27" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="26" t="s">
+      <c r="G27" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H27" s="27"/>
-    </row>
-    <row r="28" s="28" customFormat="true" ht="38.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H27" s="24"/>
+    </row>
+    <row r="28" s="25" customFormat="true" ht="38.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="26" t="s">
+      <c r="E28" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G28" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="H28" s="27"/>
-    </row>
-    <row r="29" s="28" customFormat="true" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G28" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="24"/>
+    </row>
+    <row r="29" s="25" customFormat="true" ht="63.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D29" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="26" t="s">
+      <c r="D29" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="26" t="s">
+      <c r="G29" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="H29" s="27"/>
-    </row>
-    <row r="30" s="28" customFormat="true" ht="32.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H29" s="24"/>
+    </row>
+    <row r="30" s="25" customFormat="true" ht="32.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="E30" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="26" t="s">
+      <c r="E30" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G30" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="H30" s="27"/>
-    </row>
-    <row r="31" s="28" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G30" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="24"/>
+    </row>
+    <row r="31" s="25" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="D31" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="26" t="s">
+      <c r="D31" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G31" s="26" t="s">
+      <c r="G31" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="27"/>
-    </row>
-    <row r="32" s="28" customFormat="true" ht="48.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H31" s="24"/>
+    </row>
+    <row r="32" s="25" customFormat="true" ht="48.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="D32" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="E32" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="26" t="s">
+      <c r="E32" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="26" t="s">
+      <c r="G32" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="H32" s="27"/>
-    </row>
-    <row r="33" s="28" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H32" s="24"/>
+    </row>
+    <row r="33" s="25" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="D33" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="26" t="s">
+      <c r="D33" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="26" t="s">
+      <c r="G33" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H33" s="27"/>
-    </row>
-    <row r="34" s="28" customFormat="true" ht="37.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H33" s="24"/>
+    </row>
+    <row r="34" s="25" customFormat="true" ht="37.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="D34" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="26" t="s">
+      <c r="D34" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G34" s="26" t="s">
+      <c r="G34" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="H34" s="27"/>
-    </row>
-    <row r="35" s="28" customFormat="true" ht="201.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H34" s="24"/>
+    </row>
+    <row r="35" s="25" customFormat="true" ht="201.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="D35" s="26" t="s">
+      <c r="D35" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="E35" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="26" t="s">
+      <c r="E35" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G35" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="H35" s="27"/>
-    </row>
-    <row r="36" s="28" customFormat="true" ht="60.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G35" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H35" s="24"/>
+    </row>
+    <row r="36" s="25" customFormat="true" ht="60.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C36" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="D36" s="26" t="s">
+      <c r="D36" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="E36" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="26" t="s">
+      <c r="E36" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G36" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="H36" s="27"/>
-    </row>
-    <row r="37" s="33" customFormat="true" ht="62.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G36" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36" s="24"/>
+    </row>
+    <row r="37" s="30" customFormat="true" ht="62.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="C37" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="D37" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="31" t="s">
+      <c r="D37" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G37" s="31" t="s">
+      <c r="G37" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="H37" s="32"/>
-    </row>
-    <row r="38" s="33" customFormat="true" ht="19.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H37" s="29"/>
+    </row>
+    <row r="38" s="30" customFormat="true" ht="19.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="C38" s="30" t="s">
+      <c r="C38" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="D38" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="31" t="s">
+      <c r="D38" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G38" s="31" t="s">
+      <c r="G38" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="H38" s="32"/>
-    </row>
-    <row r="39" s="33" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H38" s="29"/>
+    </row>
+    <row r="39" s="30" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="C39" s="30" t="s">
+      <c r="C39" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="D39" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="31" t="s">
+      <c r="D39" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G39" s="31" t="s">
+      <c r="G39" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="H39" s="32"/>
-    </row>
-    <row r="40" s="33" customFormat="true" ht="40.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H39" s="29"/>
+    </row>
+    <row r="40" s="30" customFormat="true" ht="40.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="C40" s="30" t="s">
+      <c r="C40" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="D40" s="31" t="s">
+      <c r="D40" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E40" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="31" t="s">
+      <c r="E40" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="G40" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="H40" s="32"/>
-    </row>
-    <row r="41" s="33" customFormat="true" ht="39.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G40" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="H40" s="29"/>
+    </row>
+    <row r="41" s="30" customFormat="true" ht="39.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="B41" s="29" t="s">
+      <c r="B41" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="C41" s="34" t="s">
+      <c r="C41" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="D41" s="31" t="s">
+      <c r="D41" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="E41" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="31" t="s">
+      <c r="E41" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G41" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="H41" s="32"/>
-    </row>
-    <row r="42" s="33" customFormat="true" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G41" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="H41" s="29"/>
+    </row>
+    <row r="42" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B42" s="29" t="s">
+      <c r="B42" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="D42" s="31" t="s">
+      <c r="D42" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="E42" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="31" t="s">
+      <c r="E42" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G42" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="H42" s="32"/>
-    </row>
-    <row r="43" s="33" customFormat="true" ht="36.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G42" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="H42" s="29"/>
+    </row>
+    <row r="43" customFormat="false" ht="36.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="B43" s="29" t="s">
+      <c r="B43" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="D43" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="31" t="s">
+      <c r="D43" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G43" s="31" t="s">
+      <c r="G43" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="H43" s="32"/>
-    </row>
-    <row r="44" s="33" customFormat="true" ht="79.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H43" s="29"/>
+    </row>
+    <row r="44" customFormat="false" ht="79.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B44" s="29" t="s">
+      <c r="B44" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="C44" s="30" t="s">
+      <c r="C44" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="D44" s="31" t="s">
+      <c r="D44" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="E44" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="31" t="s">
+      <c r="E44" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G44" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="H44" s="32"/>
-    </row>
-    <row r="45" s="33" customFormat="true" ht="60.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G44" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="H44" s="29"/>
+    </row>
+    <row r="45" customFormat="false" ht="60.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="B45" s="29" t="s">
+      <c r="B45" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="C45" s="30" t="s">
+      <c r="C45" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="D45" s="31" t="s">
+      <c r="D45" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="E45" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="31" t="s">
+      <c r="E45" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G45" s="31" t="s">
+      <c r="G45" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="H45" s="32"/>
-    </row>
-    <row r="46" s="33" customFormat="true" ht="45.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H45" s="29"/>
+    </row>
+    <row r="46" customFormat="false" ht="45.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="B46" s="29" t="s">
+      <c r="B46" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="C46" s="30" t="s">
+      <c r="C46" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="D46" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" s="31" t="s">
+      <c r="D46" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G46" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="H46" s="32"/>
-    </row>
-    <row r="47" s="39" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G46" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="H46" s="29"/>
+    </row>
+    <row r="47" s="35" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="B47" s="35" t="s">
+      <c r="B47" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C47" s="36" t="s">
+      <c r="C47" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="D47" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="37" t="s">
+      <c r="D47" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="G47" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="H47" s="38"/>
-    </row>
-    <row r="48" s="39" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G47" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="H47" s="34"/>
+    </row>
+    <row r="48" s="35" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="B48" s="35" t="s">
+      <c r="B48" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="C48" s="36" t="s">
+      <c r="C48" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="D48" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="37" t="s">
+      <c r="D48" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="G48" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="H48" s="38"/>
-    </row>
-    <row r="49" s="39" customFormat="true" ht="40.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G48" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="H48" s="34"/>
+    </row>
+    <row r="49" s="35" customFormat="true" ht="40.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="B49" s="35" t="s">
+      <c r="B49" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="D49" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" s="37" t="s">
+      <c r="D49" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="G49" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="H49" s="38"/>
-    </row>
-    <row r="50" s="39" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G49" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="H49" s="34"/>
+    </row>
+    <row r="50" s="35" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="B50" s="35" t="s">
+      <c r="B50" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="C50" s="36" t="s">
+      <c r="C50" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="D50" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50" s="37" t="s">
+      <c r="D50" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="G50" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="H50" s="38"/>
-    </row>
-    <row r="51" s="39" customFormat="true" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G50" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="H50" s="34"/>
+    </row>
+    <row r="51" s="35" customFormat="true" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="B51" s="35" t="s">
+      <c r="B51" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="C51" s="36" t="s">
+      <c r="C51" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="D51" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" s="37" t="s">
+      <c r="D51" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="G51" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="H51" s="38"/>
-    </row>
-    <row r="52" s="39" customFormat="true" ht="40.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G51" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="H51" s="34"/>
+    </row>
+    <row r="52" s="35" customFormat="true" ht="40.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="B52" s="35" t="s">
+      <c r="B52" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="C52" s="36" t="s">
+      <c r="C52" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="D52" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" s="37" t="s">
+      <c r="D52" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="G52" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="H52" s="38"/>
-    </row>
-    <row r="53" s="39" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G52" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="H52" s="34"/>
+    </row>
+    <row r="53" s="35" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="B53" s="35" t="s">
+      <c r="B53" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="C53" s="40" t="s">
+      <c r="C53" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="D53" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="F53" s="37" t="s">
+      <c r="D53" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="G53" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="H53" s="38"/>
-    </row>
-    <row r="54" s="39" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G53" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="H53" s="34"/>
+    </row>
+    <row r="54" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="B54" s="35" t="s">
+      <c r="B54" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="C54" s="36" t="s">
+      <c r="C54" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="D54" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="F54" s="37" t="s">
+      <c r="D54" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="G54" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="H54" s="38"/>
-    </row>
-    <row r="55" s="39" customFormat="true" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G54" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="H54" s="34"/>
+    </row>
+    <row r="55" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="B55" s="35" t="s">
+      <c r="B55" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="C55" s="36" t="s">
+      <c r="C55" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="D55" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" s="37" t="s">
+      <c r="D55" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="G55" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="H55" s="38"/>
-    </row>
-    <row r="56" s="39" customFormat="true" ht="186.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G55" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="H55" s="34"/>
+    </row>
+    <row r="56" customFormat="false" ht="186.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="B56" s="35" t="s">
+      <c r="B56" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="C56" s="36" t="s">
+      <c r="C56" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="D56" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" s="37" t="s">
+      <c r="D56" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="G56" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="H56" s="38"/>
-    </row>
-    <row r="57" s="45" customFormat="true" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G56" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="H56" s="34"/>
+    </row>
+    <row r="57" s="40" customFormat="true" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="B57" s="41" t="s">
+      <c r="B57" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="C57" s="42" t="s">
+      <c r="C57" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="D57" s="43" t="s">
+      <c r="D57" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="E57" s="43" t="s">
+      <c r="E57" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="F57" s="43" t="s">
+      <c r="F57" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="G57" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="H57" s="44"/>
-    </row>
-    <row r="58" s="45" customFormat="true" ht="41.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G57" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="H57" s="39"/>
+    </row>
+    <row r="58" s="40" customFormat="true" ht="41.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="B58" s="41" t="s">
+      <c r="B58" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="C58" s="42" t="s">
+      <c r="C58" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="D58" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" s="43" t="s">
+      <c r="D58" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="F58" s="43" t="s">
+      <c r="F58" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="G58" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="H58" s="44"/>
-    </row>
-    <row r="59" s="45" customFormat="true" ht="39.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G58" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="H58" s="39"/>
+    </row>
+    <row r="59" s="40" customFormat="true" ht="39.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="B59" s="41" t="s">
+      <c r="B59" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="C59" s="42" t="s">
+      <c r="C59" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="D59" s="43" t="s">
+      <c r="D59" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="E59" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="43" t="s">
+      <c r="E59" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="G59" s="43" t="s">
+      <c r="G59" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="H59" s="44"/>
-    </row>
-    <row r="60" s="45" customFormat="true" ht="36.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H59" s="39"/>
+    </row>
+    <row r="60" s="40" customFormat="true" ht="36.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="B60" s="41" t="s">
+      <c r="B60" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="C60" s="42" t="s">
+      <c r="C60" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="D60" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" s="43" t="s">
+      <c r="D60" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="G60" s="43" t="s">
+      <c r="G60" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="H60" s="44"/>
-    </row>
-    <row r="61" s="45" customFormat="true" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H60" s="39"/>
+    </row>
+    <row r="61" s="40" customFormat="true" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="B61" s="41" t="s">
+      <c r="B61" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="C61" s="42" t="s">
+      <c r="C61" s="37" t="s">
         <v>199</v>
       </c>
-      <c r="D61" s="43" t="s">
+      <c r="D61" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="E61" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" s="43" t="s">
+      <c r="E61" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="G61" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="H61" s="44"/>
-    </row>
-    <row r="62" s="50" customFormat="true" ht="37.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G61" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="H61" s="39"/>
+    </row>
+    <row r="62" s="45" customFormat="true" ht="37.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="B62" s="46" t="s">
+      <c r="B62" s="41" t="s">
         <v>201</v>
       </c>
-      <c r="C62" s="47" t="s">
+      <c r="C62" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="D62" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="E62" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62" s="48" t="s">
+      <c r="D62" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="G62" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="H62" s="49"/>
-    </row>
-    <row r="63" s="50" customFormat="true" ht="40.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G62" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="H62" s="44"/>
+    </row>
+    <row r="63" s="45" customFormat="true" ht="40.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="B63" s="46" t="s">
+      <c r="B63" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="C63" s="47" t="s">
+      <c r="C63" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="D63" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="F63" s="48" t="s">
+      <c r="D63" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="G63" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="H63" s="49"/>
-    </row>
-    <row r="64" s="50" customFormat="true" ht="38.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G63" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="H63" s="44"/>
+    </row>
+    <row r="64" s="45" customFormat="true" ht="38.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="B64" s="46" t="s">
+      <c r="B64" s="41" t="s">
         <v>207</v>
       </c>
-      <c r="C64" s="51" t="s">
+      <c r="C64" s="42" t="s">
         <v>208</v>
       </c>
-      <c r="D64" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="F64" s="48" t="s">
+      <c r="D64" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="G64" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="H64" s="49"/>
-    </row>
-    <row r="65" s="50" customFormat="true" ht="56.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G64" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="H64" s="44"/>
+    </row>
+    <row r="65" s="45" customFormat="true" ht="56.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="B65" s="46" t="s">
+      <c r="B65" s="41" t="s">
         <v>210</v>
       </c>
-      <c r="C65" s="51" t="s">
+      <c r="C65" s="42" t="s">
         <v>211</v>
       </c>
-      <c r="D65" s="48" t="s">
+      <c r="D65" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="E65" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="F65" s="48" t="s">
+      <c r="E65" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="G65" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="H65" s="49"/>
-    </row>
-    <row r="66" s="50" customFormat="true" ht="56.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G65" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="H65" s="44"/>
+    </row>
+    <row r="66" s="45" customFormat="true" ht="56.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="B66" s="46" t="s">
+      <c r="B66" s="41" t="s">
         <v>213</v>
       </c>
-      <c r="C66" s="51" t="s">
+      <c r="C66" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="D66" s="48" t="s">
+      <c r="D66" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="E66" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="F66" s="48" t="s">
+      <c r="E66" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="G66" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="H66" s="49"/>
-    </row>
-    <row r="67" s="50" customFormat="true" ht="56.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G66" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="H66" s="44"/>
+    </row>
+    <row r="67" customFormat="false" ht="56.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="B67" s="46" t="s">
+      <c r="B67" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="C67" s="47" t="s">
+      <c r="C67" s="42" t="s">
         <v>217</v>
       </c>
-      <c r="D67" s="48" t="s">
+      <c r="D67" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="E67" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="F67" s="48" t="s">
+      <c r="E67" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="G67" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="H67" s="49"/>
-    </row>
-    <row r="68" s="55" customFormat="true" ht="56.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G67" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="H67" s="44"/>
+    </row>
+    <row r="68" s="49" customFormat="true" ht="56.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="B68" s="52" t="s">
+      <c r="B68" s="46" t="s">
         <v>219</v>
       </c>
-      <c r="C68" s="53" t="s">
+      <c r="C68" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="D68" s="54" t="s">
+      <c r="D68" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="E68" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="F68" s="54" t="s">
+      <c r="E68" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="G68" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="H68" s="54"/>
-    </row>
-    <row r="69" s="55" customFormat="true" ht="56.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G68" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="H68" s="48"/>
+    </row>
+    <row r="69" s="49" customFormat="true" ht="56.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="B69" s="52" t="s">
+      <c r="B69" s="46" t="s">
         <v>222</v>
       </c>
-      <c r="C69" s="53" t="s">
+      <c r="C69" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="D69" s="54" t="s">
+      <c r="D69" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="E69" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="F69" s="54" t="s">
+      <c r="E69" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="G69" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="H69" s="54"/>
-    </row>
-    <row r="70" s="55" customFormat="true" ht="84.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G69" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="H69" s="48"/>
+    </row>
+    <row r="70" s="49" customFormat="true" ht="84.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="B70" s="52" t="s">
+      <c r="B70" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="C70" s="53" t="s">
+      <c r="C70" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="D70" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="E70" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="F70" s="54" t="s">
+      <c r="D70" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E70" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="G70" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="H70" s="54"/>
-    </row>
-    <row r="71" s="55" customFormat="true" ht="56.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G70" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="H70" s="48"/>
+    </row>
+    <row r="71" customFormat="false" ht="56.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="B71" s="56" t="s">
+      <c r="B71" s="46" t="s">
         <v>228</v>
       </c>
-      <c r="C71" s="53" t="s">
+      <c r="C71" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="D71" s="54" t="s">
+      <c r="D71" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="E71" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="F71" s="54" t="s">
+      <c r="E71" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="G71" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="H71" s="54"/>
-    </row>
-    <row r="72" s="55" customFormat="true" ht="56.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G71" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="H71" s="48"/>
+    </row>
+    <row r="72" customFormat="false" ht="56.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="B72" s="56" t="s">
+      <c r="B72" s="46" t="s">
         <v>231</v>
       </c>
-      <c r="C72" s="53" t="s">
+      <c r="C72" s="47" t="s">
         <v>232</v>
       </c>
-      <c r="D72" s="54" t="s">
+      <c r="D72" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="E72" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72" s="54" t="s">
+      <c r="E72" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="G72" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="H72" s="54"/>
-    </row>
-    <row r="73" s="55" customFormat="true" ht="56.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G72" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="H72" s="48"/>
+    </row>
+    <row r="73" customFormat="false" ht="56.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="B73" s="56" t="s">
+      <c r="B73" s="46" t="s">
         <v>234</v>
       </c>
-      <c r="C73" s="53" t="s">
+      <c r="C73" s="47" t="s">
         <v>235</v>
       </c>
-      <c r="D73" s="54" t="s">
+      <c r="D73" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="E73" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" s="54" t="s">
+      <c r="E73" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="G73" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="H73" s="54"/>
-    </row>
-    <row r="74" s="55" customFormat="true" ht="85.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G73" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="H73" s="48"/>
+    </row>
+    <row r="74" customFormat="false" ht="85.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="B74" s="56" t="s">
+      <c r="B74" s="46" t="s">
         <v>237</v>
       </c>
-      <c r="C74" s="53" t="s">
+      <c r="C74" s="47" t="s">
         <v>238</v>
       </c>
-      <c r="D74" s="54" t="s">
+      <c r="D74" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="E74" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="F74" s="54" t="s">
+      <c r="E74" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="G74" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="H74" s="54"/>
+      <c r="G74" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="H74" s="48"/>
+    </row>
+    <row r="75" s="49" customFormat="true" ht="36.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="B75" s="46" t="s">
+        <v>240</v>
+      </c>
+      <c r="C75" s="47" t="s">
+        <v>241</v>
+      </c>
+      <c r="D75" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="E75" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="G75" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="H75" s="48"/>
+    </row>
+    <row r="76" s="49" customFormat="true" ht="54.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B76" s="46" t="s">
+        <v>243</v>
+      </c>
+      <c r="C76" s="47" t="s">
+        <v>244</v>
+      </c>
+      <c r="D76" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E76" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="G76" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="H76" s="48"/>
+    </row>
+    <row r="77" s="49" customFormat="true" ht="41.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B77" s="46" t="s">
+        <v>246</v>
+      </c>
+      <c r="C77" s="47" t="s">
+        <v>247</v>
+      </c>
+      <c r="D77" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E77" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="G77" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="H77" s="48"/>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D2:D74" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D2:D77" type="list">
       <formula1>"Mínimo,Importante,Opcional"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E2:E74" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E2:E77" type="list">
       <formula1>"Técnico,Funcional,Información"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F2:F74" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F2:F77" type="list">
       <formula1>"Fácil,Media,Difícil"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="G2:G74" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="G2:G77" type="list">
       <formula1>"v1,v2,v3"</formula1>
       <formula2>0</formula2>
     </dataValidation>
